--- a/example/Logistics/logistics_status.xlsx
+++ b/example/Logistics/logistics_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Annie Wang\物流工單\#155810,155813【物流】中華郵政優化_官網物流頁與手冊調整\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="260">
   <si>
     <t>CVS</t>
   </si>
   <si>
-    <t>FAMI</t>
-  </si>
-  <si>
     <t>訂單處理中(已收到訂單資料)</t>
   </si>
   <si>
@@ -408,9 +405,6 @@
   </si>
   <si>
     <t>買家未取退回物流中心-爆量</t>
-  </si>
-  <si>
-    <t>HILIFE</t>
   </si>
   <si>
     <t>上傳退貨電子訂單處理中</t>
@@ -575,10 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※全家超商(FAMI)及萊爾富(HILIFE)的貨態為B2C、C2C共用，故僅提供單一貨態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物流中心驗收退貨完畢</t>
   </si>
   <si>
@@ -744,6 +734,122 @@
   </si>
   <si>
     <t>※物流廠商代碼對照：全家超商(FAMI) / 7-ELEVEN大宗寄倉超商取貨(UNIMART) / 7-ELEVEN交貨便(UNIMARTC2C) / OK超商店到店(OKMARTC2C) / 萊爾富(HILIFE) / 大嘴鳥宅配通(ECAN) / 黑貓宅急便(TCAT) / 中華郵政(POST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※全家超商(FAMI)及萊爾富(HILIFE)的貨態為B2C、C2C共用，故僅提供單一共用貨態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAMI、FAMIC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HILIFE、HILIFEC2C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,44 +1218,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="4" max="4" width="85.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>182</v>
-      </c>
       <c r="D4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1157,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,13 +1277,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C6">
         <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C7">
         <v>2105</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C8">
         <v>3018</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,13 +1319,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C9">
         <v>3019</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="C10">
         <v>3020</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C11">
         <v>3021</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1255,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C12">
         <v>3022</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C13">
         <v>3023</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1283,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C14">
         <v>3024</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1297,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="C15">
         <v>3025</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C16">
         <v>3029</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C17">
         <v>3031</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1339,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="C18">
         <v>3032</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C19">
         <v>4001</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C20">
         <v>4002</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1381,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C21">
         <v>5009</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C22">
         <v>7006</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1409,13 +1515,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C23">
         <v>7007</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1423,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C24">
         <v>7008</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C25">
         <v>7009</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1451,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C26">
         <v>7010</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1465,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C27">
         <v>7011</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C28">
         <v>7012</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C29">
         <v>7013</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C30">
         <v>7014</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1521,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="C31">
         <v>7015</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1535,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="C32">
         <v>7016</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1549,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="C33">
         <v>7032</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>310</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1591,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>2001</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37">
         <v>2002</v>
       </c>
       <c r="D37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1619,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>2003</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <v>2004</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>2005</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>2006</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>2008</v>
       </c>
       <c r="D43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>2009</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,13 +1823,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>2010</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>2011</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,13 +1851,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>2013</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>2015</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>2016</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>2017</v>
       </c>
       <c r="D52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>2018</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,13 +1949,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58">
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59">
         <v>2024</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60">
         <v>2025</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61">
         <v>2026</v>
       </c>
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>2027</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C63">
         <v>2028</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>2029</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>2030</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>2031</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>2032</v>
       </c>
       <c r="D67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,13 +2145,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68">
         <v>2033</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>2034</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C70">
         <v>2035</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71">
         <v>2036</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>2037</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>2038</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2123,13 +2229,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>2039</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>2040</v>
       </c>
       <c r="D75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2151,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>2041</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2165,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>2042</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>2043</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2193,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>2044</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>2045</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>2046</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C82">
         <v>2047</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83">
         <v>2048</v>
       </c>
       <c r="D83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84">
         <v>2049</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C85">
         <v>2050</v>
       </c>
       <c r="D85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86">
         <v>2051</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C87">
         <v>2052</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,13 +2425,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88">
         <v>2053</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C89">
         <v>2054</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2347,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90">
         <v>2055</v>
       </c>
       <c r="D90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,13 +2467,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91">
         <v>2057</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>2058</v>
       </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>2059</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>2060</v>
       </c>
       <c r="D94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>2061</v>
       </c>
       <c r="D95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C96">
         <v>2062</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,13 +2551,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97">
         <v>2063</v>
       </c>
       <c r="D97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,13 +2565,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C98">
         <v>2065</v>
       </c>
       <c r="D98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2473,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99">
         <v>2066</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2487,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C100">
         <v>2067</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101">
         <v>2070</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,13 +2621,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C102">
         <v>2071</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,13 +2635,13 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C103">
         <v>2073</v>
       </c>
       <c r="D103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104">
         <v>2074</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C105">
         <v>2072</v>
       </c>
       <c r="D105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106">
         <v>2075</v>
       </c>
       <c r="D106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107">
         <v>2094</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108">
         <v>2095</v>
       </c>
       <c r="D108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C109">
         <v>4001</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C110">
         <v>4002</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,13 +2747,13 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111">
         <v>7017</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C112">
         <v>7018</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113">
         <v>7021</v>
       </c>
       <c r="D113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C114">
         <v>7022</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115">
         <v>7023</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C116">
         <v>2030</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117">
         <v>2067</v>
       </c>
       <c r="D117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2739,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C118">
         <v>2068</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C119">
         <v>2069</v>
       </c>
       <c r="D119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C120">
         <v>2073</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,13 +2887,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C121">
         <v>2074</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122">
         <v>2076</v>
       </c>
       <c r="D122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C123">
         <v>2077</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,13 +2929,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124">
         <v>2078</v>
       </c>
       <c r="D124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C125">
         <v>2079</v>
       </c>
       <c r="D125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126">
         <v>2080</v>
       </c>
       <c r="D126" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,13 +2971,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C127">
         <v>2081</v>
       </c>
       <c r="D127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C128">
         <v>2082</v>
       </c>
       <c r="D128" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,13 +2999,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129">
         <v>2083</v>
       </c>
       <c r="D129" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C130">
         <v>2084</v>
       </c>
       <c r="D130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -2921,13 +3027,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C131">
         <v>2085</v>
       </c>
       <c r="D131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2935,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C132">
         <v>2086</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C133">
         <v>2087</v>
       </c>
       <c r="D133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C134">
         <v>2088</v>
       </c>
       <c r="D134" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C135">
         <v>2089</v>
       </c>
       <c r="D135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C136">
         <v>2092</v>
       </c>
       <c r="D136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3005,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C137">
         <v>2093</v>
       </c>
       <c r="D137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C138">
         <v>2101</v>
       </c>
       <c r="D138" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3033,13 +3139,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C139">
         <v>2102</v>
       </c>
       <c r="D139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C140">
         <v>2103</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C141">
         <v>2104</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C142">
         <v>2105</v>
       </c>
       <c r="D142" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3089,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C143">
         <v>7019</v>
       </c>
       <c r="D143" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,13 +3209,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C144">
         <v>7020</v>
       </c>
       <c r="D144" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C145">
         <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C146">
         <v>310</v>
       </c>
       <c r="D146" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3145,13 +3251,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C147">
         <v>311</v>
       </c>
       <c r="D147" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="C148">
         <v>325</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3173,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C149">
         <v>2000</v>
       </c>
       <c r="D149" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,13 +3293,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C150">
         <v>2001</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C151">
         <v>2002</v>
       </c>
       <c r="D151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,13 +3321,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="C152">
         <v>2003</v>
       </c>
       <c r="D152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C153">
         <v>2004</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C154">
         <v>2005</v>
       </c>
       <c r="D154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C155">
         <v>2006</v>
       </c>
       <c r="D155" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C156">
         <v>2007</v>
       </c>
       <c r="D156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C157">
         <v>2009</v>
       </c>
       <c r="D157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C158">
         <v>2010</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="C159">
         <v>2011</v>
       </c>
       <c r="D159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C160">
         <v>2012</v>
       </c>
       <c r="D160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C161">
         <v>2013</v>
       </c>
       <c r="D161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C162">
         <v>2014</v>
       </c>
       <c r="D162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="C163">
         <v>2015</v>
       </c>
       <c r="D163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3383,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C164">
         <v>2016</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3397,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="C165">
         <v>2017</v>
       </c>
       <c r="D165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C166">
         <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C167">
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C168">
         <v>2020</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C169">
         <v>2021</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C170">
         <v>2022</v>
       </c>
       <c r="D170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="C171">
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C172">
         <v>2024</v>
       </c>
       <c r="D172" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C173">
         <v>2025</v>
       </c>
       <c r="D173" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C174">
         <v>2026</v>
       </c>
       <c r="D174" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3537,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C175">
         <v>2027</v>
       </c>
       <c r="D175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C176">
         <v>2028</v>
       </c>
       <c r="D176" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="C177">
         <v>2029</v>
       </c>
       <c r="D177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C178">
         <v>2030</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3593,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C179">
         <v>2031</v>
       </c>
       <c r="D179" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3607,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C180">
         <v>2032</v>
       </c>
       <c r="D180" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3621,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C181">
         <v>2033</v>
       </c>
       <c r="D181" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C182">
         <v>2034</v>
       </c>
       <c r="D182" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3649,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C183">
         <v>2035</v>
       </c>
       <c r="D183" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3663,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C184">
         <v>2036</v>
       </c>
       <c r="D184" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="C185">
         <v>2037</v>
       </c>
       <c r="D185" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C186">
         <v>2038</v>
       </c>
       <c r="D186" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C187">
         <v>2039</v>
       </c>
       <c r="D187" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C188">
         <v>2040</v>
       </c>
       <c r="D188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C189">
         <v>2041</v>
       </c>
       <c r="D189" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C190">
         <v>2042</v>
       </c>
       <c r="D190" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="C191">
         <v>2043</v>
       </c>
       <c r="D191" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="C192">
         <v>2045</v>
       </c>
       <c r="D192" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C193">
         <v>2046</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3803,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C194">
         <v>2047</v>
       </c>
       <c r="D194" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="C195">
         <v>2048</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C196">
         <v>2049</v>
       </c>
       <c r="D196" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C197">
         <v>2050</v>
       </c>
       <c r="D197" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C198">
         <v>2051</v>
       </c>
       <c r="D198" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C199">
         <v>2052</v>
       </c>
       <c r="D199" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C200">
         <v>2053</v>
       </c>
       <c r="D200" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -3901,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C201">
         <v>2054</v>
       </c>
       <c r="D201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C202">
         <v>2055</v>
       </c>
       <c r="D202" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="C203">
         <v>2057</v>
       </c>
       <c r="D203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C204">
         <v>2058</v>
       </c>
       <c r="D204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C205">
         <v>2059</v>
       </c>
       <c r="D205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="C206">
         <v>2060</v>
       </c>
       <c r="D206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C207">
         <v>2061</v>
       </c>
       <c r="D207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C208">
         <v>2062</v>
       </c>
       <c r="D208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C209">
         <v>2063</v>
       </c>
       <c r="D209" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C210">
         <v>2065</v>
       </c>
       <c r="D210" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C211">
         <v>2066</v>
       </c>
       <c r="D211" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C212">
         <v>2067</v>
       </c>
       <c r="D212" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C213">
         <v>2068</v>
       </c>
       <c r="D213" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C214">
         <v>2069</v>
       </c>
       <c r="D214" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C215">
         <v>2070</v>
       </c>
       <c r="D215" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,13 +4217,13 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C216">
         <v>2071</v>
       </c>
       <c r="D216" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C217">
         <v>2072</v>
       </c>
       <c r="D217" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C218">
         <v>2073</v>
       </c>
       <c r="D218" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C219">
         <v>2074</v>
       </c>
       <c r="D219" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C220">
         <v>2075</v>
       </c>
       <c r="D220" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C221">
         <v>2101</v>
       </c>
       <c r="D221" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="C222">
         <v>2102</v>
       </c>
       <c r="D222" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C223">
         <v>2103</v>
       </c>
       <c r="D223" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C224">
         <v>2104</v>
       </c>
       <c r="D224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C225">
         <v>3001</v>
       </c>
       <c r="D225" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C226">
         <v>3002</v>
       </c>
       <c r="D226" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C227">
         <v>3003</v>
       </c>
       <c r="D227" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C228">
         <v>3004</v>
       </c>
       <c r="D228" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C229">
         <v>3005</v>
       </c>
       <c r="D229" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C230">
         <v>3006</v>
       </c>
       <c r="D230" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C231">
         <v>3007</v>
       </c>
       <c r="D231" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C232">
         <v>3008</v>
       </c>
       <c r="D232" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C233">
         <v>3009</v>
       </c>
       <c r="D233" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="C234">
         <v>3010</v>
       </c>
       <c r="D234" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C235">
         <v>3011</v>
       </c>
       <c r="D235" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C236">
         <v>3012</v>
       </c>
       <c r="D236" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C237">
         <v>3013</v>
       </c>
       <c r="D237" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C238">
         <v>3014</v>
       </c>
       <c r="D238" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="C239">
         <v>3015</v>
       </c>
       <c r="D239" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C240">
         <v>3016</v>
       </c>
       <c r="D240" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C241">
         <v>3017</v>
       </c>
       <c r="D241" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C242">
         <v>3018</v>
       </c>
       <c r="D242" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,13 +4595,13 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="C243">
         <v>3019</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C244">
         <v>3020</v>
       </c>
       <c r="D244" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C245">
         <v>3021</v>
       </c>
       <c r="D245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C246">
         <v>3022</v>
       </c>
       <c r="D246" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C247">
         <v>3023</v>
       </c>
       <c r="D247" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C248">
         <v>3024</v>
       </c>
       <c r="D248" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C249">
         <v>3025</v>
       </c>
       <c r="D249" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C250">
         <v>3029</v>
       </c>
       <c r="D250" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C251">
         <v>3031</v>
       </c>
       <c r="D251" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C252">
         <v>3032</v>
       </c>
       <c r="D252" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C253">
         <v>4001</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C254">
         <v>4002</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="C255">
         <v>5001</v>
       </c>
       <c r="D255" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C256">
         <v>5002</v>
       </c>
       <c r="D256" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4685,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C257">
         <v>5003</v>
       </c>
       <c r="D257" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="C258">
         <v>5004</v>
       </c>
       <c r="D258" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C259">
         <v>5005</v>
       </c>
       <c r="D259" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C260">
         <v>5006</v>
       </c>
       <c r="D260" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C261">
         <v>5007</v>
       </c>
       <c r="D261" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C262">
         <v>5008</v>
       </c>
       <c r="D262" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C263">
         <v>5009</v>
       </c>
       <c r="D263" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C264">
         <v>7001</v>
       </c>
       <c r="D264" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4797,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C265">
         <v>7002</v>
       </c>
       <c r="D265" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="C266">
         <v>7003</v>
       </c>
       <c r="D266" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4825,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C267">
         <v>7004</v>
       </c>
       <c r="D267" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4839,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>129</v>
+        <v>245</v>
       </c>
       <c r="C268">
         <v>7005</v>
       </c>
       <c r="D268" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4853,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C269">
         <v>7006</v>
       </c>
       <c r="D269" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="C270">
         <v>7007</v>
       </c>
       <c r="D270" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4881,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C271">
         <v>7008</v>
       </c>
       <c r="D271" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -4895,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C272">
         <v>7009</v>
       </c>
       <c r="D272" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C273">
         <v>7010</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C274">
         <v>7011</v>
       </c>
       <c r="D274" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C275">
         <v>7012</v>
       </c>
       <c r="D275" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="C276">
         <v>7013</v>
       </c>
       <c r="D276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C277">
         <v>7014</v>
       </c>
       <c r="D277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,13 +5085,13 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C278">
         <v>9001</v>
       </c>
       <c r="D278" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C279">
         <v>9002</v>
       </c>
       <c r="D279" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C280">
         <v>9999</v>
       </c>
       <c r="D280" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,13 +5127,13 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C281">
         <v>300</v>
       </c>
       <c r="D281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C282">
         <v>2030</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C283">
         <v>2055</v>
       </c>
       <c r="D283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C284">
         <v>2072</v>
       </c>
       <c r="D284" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C285">
         <v>2073</v>
       </c>
       <c r="D285" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C286">
         <v>2074</v>
       </c>
       <c r="D286" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C287">
         <v>2075</v>
       </c>
       <c r="D287" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C288">
         <v>2078</v>
       </c>
       <c r="D288" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C289">
         <v>2105</v>
       </c>
       <c r="D289" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,13 +5253,13 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C290">
         <v>3021</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C291">
         <v>3022</v>
       </c>
       <c r="D291" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C292">
         <v>3023</v>
       </c>
       <c r="D292" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C293">
         <v>3032</v>
       </c>
       <c r="D293" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5203,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C294">
         <v>7101</v>
       </c>
       <c r="D294" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C295">
         <v>7102</v>
       </c>
       <c r="D295" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C296">
         <v>7103</v>
       </c>
       <c r="D296" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5245,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C297">
         <v>7104</v>
       </c>
       <c r="D297" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5259,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C298">
         <v>7105</v>
       </c>
       <c r="D298" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5273,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C299">
         <v>7106</v>
       </c>
       <c r="D299" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5287,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C300">
         <v>7107</v>
       </c>
       <c r="D300" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5301,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C301">
         <v>7201</v>
       </c>
       <c r="D301" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C302">
         <v>7202</v>
       </c>
       <c r="D302" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5329,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C303">
         <v>7203</v>
       </c>
       <c r="D303" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5343,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C304">
         <v>7204</v>
       </c>
       <c r="D304" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5357,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C305">
         <v>7205</v>
       </c>
       <c r="D305" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5371,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C306">
         <v>7206</v>
       </c>
       <c r="D306" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C307">
         <v>7207</v>
       </c>
       <c r="D307" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,1091 +5505,1091 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C308">
         <v>7255</v>
       </c>
       <c r="D308" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B309" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C309">
         <v>300</v>
       </c>
       <c r="D309" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B310" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C310">
         <v>310</v>
       </c>
       <c r="D310" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B311" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C311">
         <v>311</v>
       </c>
       <c r="D311" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B312" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C312">
         <v>325</v>
       </c>
       <c r="D312" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B313" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C313">
         <v>3003</v>
       </c>
       <c r="D313" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B314" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C314">
         <v>3006</v>
       </c>
       <c r="D314" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B315" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C315">
         <v>3110</v>
       </c>
       <c r="D315" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B316" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C316">
         <v>3111</v>
       </c>
       <c r="D316" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B317" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C317">
         <v>3112</v>
       </c>
       <c r="D317" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B318" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C318">
         <v>3113</v>
       </c>
       <c r="D318" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B319" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C319">
         <v>3114</v>
       </c>
       <c r="D319" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B320" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C320">
         <v>311</v>
       </c>
       <c r="D320" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B321" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C321">
         <v>300</v>
       </c>
       <c r="D321" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B322" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C322">
         <v>310</v>
       </c>
       <c r="D322" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B323" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C323">
         <v>325</v>
       </c>
       <c r="D323" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B324" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C324">
         <v>3001</v>
       </c>
       <c r="D324" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B325" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C325">
         <v>3002</v>
       </c>
       <c r="D325" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B326" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C326">
         <v>3003</v>
       </c>
       <c r="D326" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B327" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C327">
         <v>3004</v>
       </c>
       <c r="D327" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B328" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C328">
         <v>3005</v>
       </c>
       <c r="D328" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B329" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C329">
         <v>3006</v>
       </c>
       <c r="D329" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B330" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C330">
         <v>3007</v>
       </c>
       <c r="D330" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B331" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C331">
         <v>3008</v>
       </c>
       <c r="D331" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B332" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C332">
         <v>3009</v>
       </c>
       <c r="D332" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B333" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C333">
         <v>3010</v>
       </c>
       <c r="D333" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B334" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C334">
         <v>3011</v>
       </c>
       <c r="D334" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B335" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C335">
         <v>3012</v>
       </c>
       <c r="D335" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B336" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C336">
         <v>3013</v>
       </c>
       <c r="D336" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B337" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C337">
         <v>3014</v>
       </c>
       <c r="D337" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B338" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C338">
         <v>3015</v>
       </c>
       <c r="D338" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B339" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C339">
         <v>3016</v>
       </c>
       <c r="D339" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B340" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C340">
         <v>3017</v>
       </c>
       <c r="D340" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B341" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C341">
         <v>3117</v>
       </c>
       <c r="D341" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B342" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C342">
         <v>3118</v>
       </c>
       <c r="D342" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B343" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C343">
         <v>3119</v>
       </c>
       <c r="D343" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B344" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C344">
         <v>3120</v>
       </c>
       <c r="D344" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B345" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C345">
         <v>3121</v>
       </c>
       <c r="D345" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B346" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C346">
         <v>3122</v>
       </c>
       <c r="D346" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B347" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C347">
         <v>5001</v>
       </c>
       <c r="D347" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B348" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C348">
         <v>5002</v>
       </c>
       <c r="D348" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B349" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C349">
         <v>5003</v>
       </c>
       <c r="D349" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B350" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C350">
         <v>5004</v>
       </c>
       <c r="D350" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B351" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C351">
         <v>5005</v>
       </c>
       <c r="D351" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B352" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C352">
         <v>5006</v>
       </c>
       <c r="D352" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B353" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C353">
         <v>5007</v>
       </c>
       <c r="D353" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B354" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C354">
         <v>5008</v>
       </c>
       <c r="D354" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B355" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C355">
         <v>7001</v>
       </c>
       <c r="D355" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B356" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C356">
         <v>7002</v>
       </c>
       <c r="D356" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B357" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C357">
         <v>7003</v>
       </c>
       <c r="D357" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B358" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C358">
         <v>7004</v>
       </c>
       <c r="D358" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B359" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C359">
         <v>7005</v>
       </c>
       <c r="D359" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B360" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C360">
         <v>7024</v>
       </c>
       <c r="D360" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B361" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C361">
         <v>7025</v>
       </c>
       <c r="D361" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B362" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C362">
         <v>7026</v>
       </c>
       <c r="D362" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B363" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C363">
         <v>7027</v>
       </c>
       <c r="D363" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B364" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C364">
         <v>7028</v>
       </c>
       <c r="D364" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B365" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C365">
         <v>7029</v>
       </c>
       <c r="D365" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B366" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C366">
         <v>7030</v>
       </c>
       <c r="D366" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B367" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C367">
         <v>7031</v>
       </c>
       <c r="D367" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B368" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C368">
         <v>3301</v>
       </c>
       <c r="D368" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B369" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C369">
         <v>3302</v>
       </c>
       <c r="D369" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B370" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C370">
         <v>3303</v>
       </c>
       <c r="D370" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B371" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C371">
         <v>3304</v>
       </c>
       <c r="D371" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B372" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C372">
         <v>3305</v>
       </c>
       <c r="D372" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B373" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C373">
         <v>3306</v>
       </c>
       <c r="D373" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B374" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C374">
         <v>3307</v>
       </c>
       <c r="D374" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B375" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C375">
         <v>3308</v>
       </c>
       <c r="D375" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B376" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C376">
         <v>3309</v>
       </c>
       <c r="D376" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B377" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C377">
         <v>3310</v>
       </c>
       <c r="D377" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B378" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C378">
         <v>3311</v>
       </c>
       <c r="D378" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B379" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C379">
         <v>3312</v>
       </c>
       <c r="D379" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B380" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C380">
         <v>3313</v>
       </c>
       <c r="D380" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B381" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C381">
         <v>3314</v>
       </c>
       <c r="D381" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B382" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C382">
         <v>3315</v>
       </c>
       <c r="D382" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B383" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C383">
         <v>7300</v>
       </c>
       <c r="D383" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B384" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C384">
         <v>7301</v>
       </c>
       <c r="D384" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B385" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C385">
         <v>7302</v>
       </c>
       <c r="D385" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/example/Logistics/logistics_status.xlsx
+++ b/example/Logistics/logistics_status.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\測試用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="259">
   <si>
     <t>CVS</t>
   </si>
@@ -44,9 +44,6 @@
     <t>商品包裝不良（門市反應）</t>
   </si>
   <si>
-    <t>取件門市閉店，轉退回原寄件店</t>
-  </si>
-  <si>
     <t>條碼錯誤，物流中心客服處理</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
   </si>
   <si>
     <t>包裹異常不配送</t>
-  </si>
-  <si>
-    <t>門市關轉(可使用SUP檔案更新原單號更新門市與出貨日)</t>
   </si>
   <si>
     <t>退回原寄件門市且已取件</t>
@@ -850,13 +844,17 @@
   </si>
   <si>
     <t>HILIFE、HILIFEC2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門市關轉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1218,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1231,31 +1229,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
         <v>178</v>
       </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="s">
-        <v>180</v>
-      </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5">
         <v>300</v>
@@ -1277,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6">
         <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C7">
         <v>2105</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8">
         <v>3018</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,13 +1317,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9">
         <v>3019</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10">
         <v>3020</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11">
         <v>3021</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12">
         <v>3022</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13">
         <v>3023</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14">
         <v>3024</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C15">
         <v>3025</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C16">
         <v>3029</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C17">
         <v>3031</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18">
         <v>3032</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19">
         <v>4001</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20">
         <v>4002</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C21">
         <v>5009</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C22">
         <v>7006</v>
@@ -1515,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C23">
         <v>7007</v>
@@ -1529,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24">
         <v>7008</v>
@@ -1543,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25">
         <v>7009</v>
@@ -1557,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C26">
         <v>7010</v>
@@ -1571,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C27">
         <v>7011</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C28">
         <v>7012</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C29">
         <v>7013</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,13 +1611,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C30">
         <v>7014</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C31">
         <v>7015</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C32">
         <v>7016</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C33">
         <v>7032</v>
       </c>
       <c r="D33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>300</v>
@@ -1683,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>310</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,13 +1695,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>2001</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>2002</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>2003</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>2004</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>2005</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>2006</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>2007</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +1793,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>2008</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44">
         <v>2009</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45">
         <v>2010</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1837,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46">
         <v>2011</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1851,13 +1849,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>2012</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,13 +1863,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48">
         <v>2013</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C49">
         <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1893,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>2015</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1907,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>2016</v>
       </c>
       <c r="D51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1921,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>2017</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,13 +1933,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53">
         <v>2018</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1949,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1963,13 +1961,13 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>2020</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>2021</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57">
         <v>2022</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2005,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>2023</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2019,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C59">
         <v>2024</v>
       </c>
       <c r="D59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60">
         <v>2025</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C61">
         <v>2026</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>2027</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>2028</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,13 +2087,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>2029</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>2030</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>2031</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>2032</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <v>2033</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>2034</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70">
         <v>2035</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>2036</v>
       </c>
       <c r="D71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C72">
         <v>2037</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C73">
         <v>2038</v>
       </c>
       <c r="D73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>2039</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75">
         <v>2040</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2257,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C76">
         <v>2041</v>
       </c>
       <c r="D76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2271,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>2042</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2285,13 +2283,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C78">
         <v>2043</v>
       </c>
       <c r="D78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2299,13 +2297,13 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79">
         <v>2044</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2313,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80">
         <v>2045</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2327,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C81">
         <v>2046</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82">
         <v>2047</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83">
         <v>2048</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C84">
         <v>2049</v>
       </c>
       <c r="D84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85">
         <v>2050</v>
       </c>
       <c r="D85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,13 +2395,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86">
         <v>2051</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C87">
         <v>2052</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C88">
         <v>2053</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2439,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>2054</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2453,13 +2451,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90">
         <v>2055</v>
       </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2467,13 +2465,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>2057</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2481,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C92">
         <v>2058</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2495,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93">
         <v>2059</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2509,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>2060</v>
       </c>
       <c r="D94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2523,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C95">
         <v>2061</v>
       </c>
       <c r="D95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2537,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>2062</v>
       </c>
       <c r="D96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C97">
         <v>2063</v>
       </c>
       <c r="D97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98">
         <v>2065</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C99">
         <v>2066</v>
       </c>
       <c r="D99" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2593,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100">
         <v>2067</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C101">
         <v>2070</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,13 +2619,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C102">
         <v>2071</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C103">
         <v>2073</v>
       </c>
       <c r="D103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C104">
         <v>2074</v>
       </c>
       <c r="D104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105">
         <v>2072</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106">
         <v>2075</v>
       </c>
       <c r="D106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,13 +2689,13 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C107">
         <v>2094</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C108">
         <v>2095</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C109">
         <v>4001</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +2731,13 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C110">
         <v>4002</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +2745,13 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C111">
         <v>7017</v>
       </c>
       <c r="D111" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112">
         <v>7018</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C113">
         <v>7021</v>
       </c>
       <c r="D113" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114">
         <v>7022</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C115">
         <v>7023</v>
       </c>
       <c r="D115" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C116">
         <v>2030</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C117">
         <v>2067</v>
       </c>
       <c r="D117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C118">
         <v>2068</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C119">
         <v>2069</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C120">
         <v>2073</v>
       </c>
       <c r="D120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C121">
         <v>2074</v>
       </c>
       <c r="D121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C122">
         <v>2076</v>
       </c>
       <c r="D122" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,13 +2913,13 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C123">
         <v>2077</v>
       </c>
       <c r="D123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C124">
         <v>2078</v>
       </c>
       <c r="D124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2943,13 +2941,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125">
         <v>2079</v>
       </c>
       <c r="D125" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C126">
         <v>2080</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C127">
         <v>2081</v>
       </c>
       <c r="D127" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C128">
         <v>2082</v>
       </c>
       <c r="D128" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C129">
         <v>2083</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C130">
         <v>2084</v>
       </c>
       <c r="D130" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,13 +3025,13 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C131">
         <v>2085</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C132">
         <v>2086</v>
       </c>
       <c r="D132" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +3053,13 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C133">
         <v>2087</v>
       </c>
       <c r="D133" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C134">
         <v>2088</v>
       </c>
       <c r="D134" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,13 +3081,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C135">
         <v>2089</v>
       </c>
       <c r="D135" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C136">
         <v>2092</v>
       </c>
       <c r="D136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C137">
         <v>2093</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C138">
         <v>2101</v>
       </c>
       <c r="D138" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C139">
         <v>2102</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C140">
         <v>2103</v>
       </c>
       <c r="D140" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C141">
         <v>2104</v>
       </c>
       <c r="D141" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,13 +3179,13 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C142">
         <v>2105</v>
       </c>
       <c r="D142" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C143">
         <v>7019</v>
       </c>
       <c r="D143" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C144">
         <v>7020</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C145">
         <v>300</v>
@@ -3237,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C146">
         <v>310</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C147">
         <v>311</v>
       </c>
       <c r="D147" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C148">
         <v>325</v>
       </c>
       <c r="D148" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C149">
         <v>2000</v>
       </c>
       <c r="D149" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C150">
         <v>2001</v>
       </c>
       <c r="D150" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C151">
         <v>2002</v>
       </c>
       <c r="D151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C152">
         <v>2003</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3335,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C153">
         <v>2004</v>
       </c>
       <c r="D153" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C154">
         <v>2005</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C155">
         <v>2006</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C156">
         <v>2007</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C157">
         <v>2009</v>
       </c>
       <c r="D157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C158">
         <v>2010</v>
       </c>
       <c r="D158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,13 +3417,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C159">
         <v>2011</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C160">
         <v>2012</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C161">
         <v>2013</v>
       </c>
       <c r="D161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,13 +3459,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C162">
         <v>2014</v>
       </c>
       <c r="D162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C163">
         <v>2015</v>
       </c>
       <c r="D163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C164">
         <v>2016</v>
       </c>
       <c r="D164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C165">
         <v>2017</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,13 +3515,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C166">
         <v>2018</v>
       </c>
       <c r="D166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C167">
         <v>2019</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C168">
         <v>2020</v>
       </c>
       <c r="D168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C169">
         <v>2021</v>
       </c>
       <c r="D169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C170">
         <v>2022</v>
       </c>
       <c r="D170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C171">
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C172">
         <v>2024</v>
       </c>
       <c r="D172" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C173">
         <v>2025</v>
       </c>
       <c r="D173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C174">
         <v>2026</v>
       </c>
       <c r="D174" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C175">
         <v>2027</v>
       </c>
       <c r="D175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C176">
         <v>2028</v>
       </c>
       <c r="D176" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C177">
         <v>2029</v>
       </c>
       <c r="D177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,13 +3683,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C178">
         <v>2030</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,13 +3697,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C179">
         <v>2031</v>
       </c>
       <c r="D179" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C180">
         <v>2032</v>
       </c>
       <c r="D180" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C181">
         <v>2033</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +3739,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C182">
         <v>2034</v>
       </c>
       <c r="D182" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C183">
         <v>2035</v>
       </c>
       <c r="D183" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C184">
         <v>2036</v>
       </c>
       <c r="D184" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C185">
         <v>2037</v>
       </c>
       <c r="D185" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C186">
         <v>2038</v>
       </c>
       <c r="D186" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3809,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C187">
         <v>2039</v>
       </c>
       <c r="D187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C188">
         <v>2040</v>
       </c>
       <c r="D188" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C189">
         <v>2041</v>
       </c>
       <c r="D189" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +3851,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C190">
         <v>2042</v>
       </c>
       <c r="D190" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +3865,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C191">
         <v>2043</v>
       </c>
       <c r="D191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C192">
         <v>2045</v>
       </c>
       <c r="D192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C193">
         <v>2046</v>
       </c>
       <c r="D193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C194">
         <v>2047</v>
       </c>
       <c r="D194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C195">
         <v>2048</v>
       </c>
       <c r="D195" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C196">
         <v>2049</v>
       </c>
       <c r="D196" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C197">
         <v>2050</v>
       </c>
       <c r="D197" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C198">
         <v>2051</v>
       </c>
       <c r="D198" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C199">
         <v>2052</v>
       </c>
       <c r="D199" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C200">
         <v>2053</v>
       </c>
       <c r="D200" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C201">
         <v>2054</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C202">
         <v>2055</v>
       </c>
       <c r="D202" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C203">
         <v>2057</v>
       </c>
       <c r="D203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C204">
         <v>2058</v>
       </c>
       <c r="D204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C205">
         <v>2059</v>
       </c>
       <c r="D205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C206">
         <v>2060</v>
       </c>
       <c r="D206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C207">
         <v>2061</v>
       </c>
       <c r="D207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C208">
         <v>2062</v>
       </c>
       <c r="D208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,13 +4117,13 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C209">
         <v>2063</v>
       </c>
       <c r="D209" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C210">
         <v>2065</v>
       </c>
       <c r="D210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,13 +4145,13 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C211">
         <v>2066</v>
       </c>
       <c r="D211" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C212">
         <v>2067</v>
       </c>
       <c r="D212" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,13 +4173,13 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C213">
         <v>2068</v>
       </c>
       <c r="D213" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C214">
         <v>2069</v>
       </c>
       <c r="D214" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C215">
         <v>2070</v>
       </c>
       <c r="D215" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C216">
         <v>2071</v>
       </c>
       <c r="D216" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C217">
         <v>2072</v>
       </c>
       <c r="D217" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4243,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C218">
         <v>2073</v>
       </c>
       <c r="D218" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C219">
         <v>2074</v>
       </c>
       <c r="D219" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C220">
         <v>2075</v>
       </c>
       <c r="D220" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C221">
         <v>2101</v>
       </c>
       <c r="D221" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4299,13 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C222">
         <v>2102</v>
       </c>
       <c r="D222" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C223">
         <v>2103</v>
       </c>
       <c r="D223" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C224">
         <v>2104</v>
       </c>
       <c r="D224" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C225">
         <v>3001</v>
       </c>
       <c r="D225" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C226">
         <v>3002</v>
       </c>
       <c r="D226" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,13 +4369,13 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C227">
         <v>3003</v>
       </c>
       <c r="D227" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C228">
         <v>3004</v>
       </c>
       <c r="D228" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C229">
         <v>3005</v>
       </c>
       <c r="D229" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,13 +4411,13 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C230">
         <v>3006</v>
       </c>
       <c r="D230" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,13 +4425,13 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C231">
         <v>3007</v>
       </c>
       <c r="D231" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C232">
         <v>3008</v>
       </c>
       <c r="D232" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C233">
         <v>3009</v>
       </c>
       <c r="D233" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C234">
         <v>3010</v>
       </c>
       <c r="D234" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C235">
         <v>3011</v>
       </c>
       <c r="D235" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C236">
         <v>3012</v>
       </c>
       <c r="D236" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4509,13 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C237">
         <v>3013</v>
       </c>
       <c r="D237" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C238">
         <v>3014</v>
       </c>
       <c r="D238" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,13 +4537,13 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C239">
         <v>3015</v>
       </c>
       <c r="D239" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C240">
         <v>3016</v>
       </c>
       <c r="D240" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,13 +4565,13 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C241">
         <v>3017</v>
       </c>
       <c r="D241" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,13 +4579,13 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C242">
         <v>3018</v>
       </c>
       <c r="D242" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C243">
         <v>3019</v>
       </c>
       <c r="D243" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C244">
         <v>3020</v>
       </c>
       <c r="D244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C245">
         <v>3021</v>
       </c>
       <c r="D245" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,13 +4635,13 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C246">
         <v>3022</v>
       </c>
       <c r="D246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247">
         <v>3023</v>
       </c>
       <c r="D247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4665,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C248">
         <v>3024</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C249">
         <v>3025</v>
       </c>
       <c r="D249" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4693,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C250">
         <v>3029</v>
       </c>
       <c r="D250" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,13 +4705,13 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C251">
         <v>3031</v>
       </c>
       <c r="D251" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C252">
         <v>3032</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C253">
         <v>4001</v>
       </c>
       <c r="D253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C254">
         <v>4002</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C255">
         <v>5001</v>
       </c>
       <c r="D255" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C256">
         <v>5002</v>
       </c>
       <c r="D256" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,13 +4789,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C257">
         <v>5003</v>
       </c>
       <c r="D257" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,13 +4803,13 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C258">
         <v>5004</v>
       </c>
       <c r="D258" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C259">
         <v>5005</v>
       </c>
       <c r="D259" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C260">
         <v>5006</v>
       </c>
       <c r="D260" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,13 +4845,13 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C261">
         <v>5007</v>
       </c>
       <c r="D261" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C262">
         <v>5008</v>
       </c>
       <c r="D262" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,13 +4873,13 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C263">
         <v>5009</v>
       </c>
       <c r="D263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C264">
         <v>7001</v>
       </c>
       <c r="D264" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C265">
         <v>7002</v>
       </c>
       <c r="D265" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,13 +4915,13 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C266">
         <v>7003</v>
       </c>
       <c r="D266" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,13 +4929,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C267">
         <v>7004</v>
       </c>
       <c r="D267" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C268">
         <v>7005</v>
       </c>
       <c r="D268" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C269">
         <v>7006</v>
@@ -4973,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C270">
         <v>7007</v>
@@ -4987,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C271">
         <v>7008</v>
@@ -5001,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C272">
         <v>7009</v>
@@ -5015,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C273">
         <v>7010</v>
@@ -5029,13 +5027,13 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C274">
         <v>7011</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C275">
         <v>7012</v>
       </c>
       <c r="D275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C276">
         <v>7013</v>
       </c>
       <c r="D276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C277">
         <v>7014</v>
       </c>
       <c r="D277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C278">
         <v>9001</v>
       </c>
       <c r="D278" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C279">
         <v>9002</v>
       </c>
       <c r="D279" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C280">
         <v>9999</v>
       </c>
       <c r="D280" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C281">
         <v>300</v>
@@ -5141,13 +5139,13 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C282">
         <v>2030</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C283">
         <v>2055</v>
       </c>
       <c r="D283" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C284">
         <v>2072</v>
       </c>
       <c r="D284" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5181,13 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C285">
         <v>2073</v>
       </c>
       <c r="D285" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C286">
         <v>2074</v>
       </c>
       <c r="D286" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C287">
         <v>2075</v>
       </c>
       <c r="D287" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C288">
         <v>2078</v>
       </c>
       <c r="D288" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C289">
         <v>2105</v>
       </c>
       <c r="D289" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C290">
         <v>3021</v>
       </c>
       <c r="D290" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,13 +5265,13 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C291">
         <v>3022</v>
       </c>
       <c r="D291" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C292">
         <v>3023</v>
       </c>
       <c r="D292" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,13 +5293,13 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C293">
         <v>3032</v>
       </c>
       <c r="D293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5307,13 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C294">
         <v>7101</v>
       </c>
       <c r="D294" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,13 +5321,13 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C295">
         <v>7102</v>
       </c>
       <c r="D295" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C296">
         <v>7103</v>
       </c>
       <c r="D296" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C297">
         <v>7104</v>
       </c>
       <c r="D297" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,13 +5363,13 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C298">
         <v>7105</v>
       </c>
       <c r="D298" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5377,13 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C299">
         <v>7106</v>
       </c>
       <c r="D299" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5393,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C300">
         <v>7107</v>
       </c>
       <c r="D300" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C301">
         <v>7201</v>
       </c>
       <c r="D301" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,13 +5419,13 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C302">
         <v>7202</v>
       </c>
       <c r="D302" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C303">
         <v>7203</v>
       </c>
       <c r="D303" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5449,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C304">
         <v>7204</v>
       </c>
       <c r="D304" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5463,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C305">
         <v>7205</v>
       </c>
       <c r="D305" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5477,13 +5475,13 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C306">
         <v>7206</v>
       </c>
       <c r="D306" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5491,13 +5489,13 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C307">
         <v>7207</v>
       </c>
       <c r="D307" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,21 +5503,21 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C308">
         <v>7255</v>
       </c>
       <c r="D308" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B309" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C309">
         <v>300</v>
@@ -5530,164 +5528,164 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B310" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C310">
         <v>310</v>
       </c>
       <c r="D310" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B311" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C311">
         <v>311</v>
       </c>
       <c r="D311" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B312" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C312">
         <v>325</v>
       </c>
       <c r="D312" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B313" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C313">
         <v>3003</v>
       </c>
       <c r="D313" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B314" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C314">
         <v>3006</v>
       </c>
       <c r="D314" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B315" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C315">
         <v>3110</v>
       </c>
       <c r="D315" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B316" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C316">
         <v>3111</v>
       </c>
       <c r="D316" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B317" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C317">
         <v>3112</v>
       </c>
       <c r="D317" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B318" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C318">
         <v>3113</v>
       </c>
       <c r="D318" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B319" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C319">
         <v>3114</v>
       </c>
       <c r="D319" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B320" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C320">
         <v>311</v>
       </c>
       <c r="D320" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B321" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C321">
         <v>300</v>
@@ -5698,898 +5696,898 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B322" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C322">
         <v>310</v>
       </c>
       <c r="D322" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B323" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C323">
         <v>325</v>
       </c>
       <c r="D323" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B324" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C324">
         <v>3001</v>
       </c>
       <c r="D324" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B325" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C325">
         <v>3002</v>
       </c>
       <c r="D325" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B326" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C326">
         <v>3003</v>
       </c>
       <c r="D326" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B327" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C327">
         <v>3004</v>
       </c>
       <c r="D327" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B328" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C328">
         <v>3005</v>
       </c>
       <c r="D328" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B329" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C329">
         <v>3006</v>
       </c>
       <c r="D329" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B330" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C330">
         <v>3007</v>
       </c>
       <c r="D330" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B331" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C331">
         <v>3008</v>
       </c>
       <c r="D331" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B332" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C332">
         <v>3009</v>
       </c>
       <c r="D332" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B333" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C333">
         <v>3010</v>
       </c>
       <c r="D333" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B334" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C334">
         <v>3011</v>
       </c>
       <c r="D334" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B335" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C335">
         <v>3012</v>
       </c>
       <c r="D335" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B336" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C336">
         <v>3013</v>
       </c>
       <c r="D336" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B337" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C337">
         <v>3014</v>
       </c>
       <c r="D337" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B338" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C338">
         <v>3015</v>
       </c>
       <c r="D338" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B339" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C339">
         <v>3016</v>
       </c>
       <c r="D339" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B340" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C340">
         <v>3017</v>
       </c>
       <c r="D340" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B341" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C341">
         <v>3117</v>
       </c>
       <c r="D341" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B342" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C342">
         <v>3118</v>
       </c>
       <c r="D342" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B343" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C343">
         <v>3119</v>
       </c>
       <c r="D343" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B344" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C344">
         <v>3120</v>
       </c>
       <c r="D344" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B345" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C345">
         <v>3121</v>
       </c>
       <c r="D345" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B346" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C346">
         <v>3122</v>
       </c>
       <c r="D346" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B347" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C347">
         <v>5001</v>
       </c>
       <c r="D347" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B348" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C348">
         <v>5002</v>
       </c>
       <c r="D348" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B349" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C349">
         <v>5003</v>
       </c>
       <c r="D349" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B350" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C350">
         <v>5004</v>
       </c>
       <c r="D350" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B351" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C351">
         <v>5005</v>
       </c>
       <c r="D351" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B352" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C352">
         <v>5006</v>
       </c>
       <c r="D352" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B353" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C353">
         <v>5007</v>
       </c>
       <c r="D353" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B354" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C354">
         <v>5008</v>
       </c>
       <c r="D354" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B355" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C355">
         <v>7001</v>
       </c>
       <c r="D355" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B356" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C356">
         <v>7002</v>
       </c>
       <c r="D356" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B357" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C357">
         <v>7003</v>
       </c>
       <c r="D357" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B358" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C358">
         <v>7004</v>
       </c>
       <c r="D358" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B359" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C359">
         <v>7005</v>
       </c>
       <c r="D359" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B360" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C360">
         <v>7024</v>
       </c>
       <c r="D360" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B361" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C361">
         <v>7025</v>
       </c>
       <c r="D361" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B362" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C362">
         <v>7026</v>
       </c>
       <c r="D362" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B363" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C363">
         <v>7027</v>
       </c>
       <c r="D363" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B364" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C364">
         <v>7028</v>
       </c>
       <c r="D364" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B365" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C365">
         <v>7029</v>
       </c>
       <c r="D365" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B366" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C366">
         <v>7030</v>
       </c>
       <c r="D366" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B367" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C367">
         <v>7031</v>
       </c>
       <c r="D367" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B368" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C368">
         <v>3301</v>
       </c>
       <c r="D368" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B369" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C369">
         <v>3302</v>
       </c>
       <c r="D369" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B370" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C370">
         <v>3303</v>
       </c>
       <c r="D370" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B371" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C371">
         <v>3304</v>
       </c>
       <c r="D371" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B372" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C372">
         <v>3305</v>
       </c>
       <c r="D372" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B373" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C373">
         <v>3306</v>
       </c>
       <c r="D373" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B374" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C374">
         <v>3307</v>
       </c>
       <c r="D374" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B375" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C375">
         <v>3308</v>
       </c>
       <c r="D375" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B376" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C376">
         <v>3309</v>
       </c>
       <c r="D376" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B377" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C377">
         <v>3310</v>
       </c>
       <c r="D377" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B378" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C378">
         <v>3311</v>
       </c>
       <c r="D378" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B379" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C379">
         <v>3312</v>
       </c>
       <c r="D379" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B380" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C380">
         <v>3313</v>
       </c>
       <c r="D380" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B381" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C381">
         <v>3314</v>
       </c>
       <c r="D381" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B382" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C382">
         <v>3315</v>
       </c>
       <c r="D382" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B383" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C383">
         <v>7300</v>
       </c>
       <c r="D383" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B384" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C384">
         <v>7301</v>
       </c>
       <c r="D384" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B385" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C385">
         <v>7302</v>
       </c>
       <c r="D385" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/example/Logistics/logistics_status.xlsx
+++ b/example/Logistics/logistics_status.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\測試用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen.hong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="261">
   <si>
     <t>CVS</t>
   </si>
@@ -849,6 +849,12 @@
   <si>
     <t>門市關轉</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退件包裹異常，協尋中</t>
+  </si>
+  <si>
+    <t>包裹遺失，進入賠償程序</t>
   </si>
 </sst>
 </file>
@@ -1214,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2748,10 +2754,10 @@
         <v>26</v>
       </c>
       <c r="C111">
-        <v>7017</v>
+        <v>4003</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,10 +2768,10 @@
         <v>26</v>
       </c>
       <c r="C112">
-        <v>7018</v>
+        <v>4004</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,10 +2782,10 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>7021</v>
+        <v>7017</v>
       </c>
       <c r="D113" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2790,10 +2796,10 @@
         <v>26</v>
       </c>
       <c r="C114">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="D114" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,10 +2810,10 @@
         <v>26</v>
       </c>
       <c r="C115">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="D115" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2815,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C116">
-        <v>2030</v>
+        <v>7022</v>
       </c>
       <c r="D116" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2829,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C117">
-        <v>2067</v>
+        <v>7023</v>
       </c>
       <c r="D117" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2846,10 +2852,10 @@
         <v>101</v>
       </c>
       <c r="C118">
-        <v>2068</v>
+        <v>2030</v>
       </c>
       <c r="D118" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2860,10 +2866,10 @@
         <v>101</v>
       </c>
       <c r="C119">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2874,10 +2880,10 @@
         <v>101</v>
       </c>
       <c r="C120">
-        <v>2073</v>
+        <v>2068</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,10 +2894,10 @@
         <v>101</v>
       </c>
       <c r="C121">
-        <v>2074</v>
+        <v>2069</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2908,10 @@
         <v>101</v>
       </c>
       <c r="C122">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D122" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2922,10 @@
         <v>101</v>
       </c>
       <c r="C123">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="D123" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,10 +2936,10 @@
         <v>101</v>
       </c>
       <c r="C124">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D124" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2950,10 @@
         <v>101</v>
       </c>
       <c r="C125">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="D125" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2964,10 @@
         <v>101</v>
       </c>
       <c r="C126">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2978,10 @@
         <v>101</v>
       </c>
       <c r="C127">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="D127" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2992,10 @@
         <v>101</v>
       </c>
       <c r="C128">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +3006,10 @@
         <v>101</v>
       </c>
       <c r="C129">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="D129" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +3020,10 @@
         <v>101</v>
       </c>
       <c r="C130">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D130" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3034,10 @@
         <v>101</v>
       </c>
       <c r="C131">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="D131" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,10 +3048,10 @@
         <v>101</v>
       </c>
       <c r="C132">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D132" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,10 +3062,10 @@
         <v>101</v>
       </c>
       <c r="C133">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,10 +3076,10 @@
         <v>101</v>
       </c>
       <c r="C134">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,10 +3090,10 @@
         <v>101</v>
       </c>
       <c r="C135">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D135" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,10 +3104,10 @@
         <v>101</v>
       </c>
       <c r="C136">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="D136" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,10 +3118,10 @@
         <v>101</v>
       </c>
       <c r="C137">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="D137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,10 +3132,10 @@
         <v>101</v>
       </c>
       <c r="C138">
-        <v>2101</v>
+        <v>2092</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,10 +3146,10 @@
         <v>101</v>
       </c>
       <c r="C139">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="D139" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,10 +3160,10 @@
         <v>101</v>
       </c>
       <c r="C140">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D140" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3168,10 +3174,10 @@
         <v>101</v>
       </c>
       <c r="C141">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D141" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,10 +3188,10 @@
         <v>101</v>
       </c>
       <c r="C142">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3202,10 @@
         <v>101</v>
       </c>
       <c r="C143">
-        <v>7019</v>
+        <v>2104</v>
       </c>
       <c r="D143" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,10 +3216,10 @@
         <v>101</v>
       </c>
       <c r="C144">
-        <v>7020</v>
+        <v>2105</v>
       </c>
       <c r="D144" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C145">
-        <v>300</v>
+        <v>7019</v>
       </c>
       <c r="D145" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C146">
-        <v>310</v>
+        <v>7020</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,10 +3258,10 @@
         <v>237</v>
       </c>
       <c r="C147">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D147" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D148" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3277,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C149">
-        <v>2000</v>
+        <v>311</v>
       </c>
       <c r="D149" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3291,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C150">
-        <v>2001</v>
+        <v>325</v>
       </c>
       <c r="D150" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3305,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C151">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="D151" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3319,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C152">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D152" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C153">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3347,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C154">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D154" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3361,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C155">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3378,10 +3384,10 @@
         <v>237</v>
       </c>
       <c r="C156">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3392,10 +3398,10 @@
         <v>237</v>
       </c>
       <c r="C157">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="D157" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3406,10 +3412,10 @@
         <v>237</v>
       </c>
       <c r="C158">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3417,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3434,10 +3440,10 @@
         <v>237</v>
       </c>
       <c r="C160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3445,13 +3451,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D161" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3462,10 +3468,10 @@
         <v>237</v>
       </c>
       <c r="C162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3473,13 +3479,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3490,10 +3496,10 @@
         <v>237</v>
       </c>
       <c r="C164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3504,10 +3510,10 @@
         <v>242</v>
       </c>
       <c r="C165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3515,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C166">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D166" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3529,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D167" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3543,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C168">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D168" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3560,10 +3566,10 @@
         <v>237</v>
       </c>
       <c r="C169">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D169" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3571,13 +3577,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C170">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D170" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C171">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C172">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D172" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3613,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C173">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,10 +3636,10 @@
         <v>237</v>
       </c>
       <c r="C174">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D174" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,10 +3650,10 @@
         <v>237</v>
       </c>
       <c r="C175">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D175" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C176">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D176" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3669,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C177">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D177" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3683,13 +3689,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C178">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C179">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D179" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C180">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="D180" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3728,10 +3734,10 @@
         <v>237</v>
       </c>
       <c r="C181">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D181" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3739,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C182">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="D182" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3756,10 +3762,10 @@
         <v>237</v>
       </c>
       <c r="C183">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D183" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3767,13 +3773,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C184">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D184" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C185">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D185" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,13 +3801,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C186">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C187">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D187" t="s">
-        <v>75</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3823,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C188">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="D188" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,10 +3846,10 @@
         <v>237</v>
       </c>
       <c r="C189">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D189" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C190">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D190" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3865,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C191">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D191" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3879,13 +3885,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C192">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="D192" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,13 +3899,13 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C193">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C194">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D194" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3921,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C195">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D195" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3938,10 +3944,10 @@
         <v>237</v>
       </c>
       <c r="C196">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D196" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3949,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C197">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D197" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3966,10 +3972,10 @@
         <v>237</v>
       </c>
       <c r="C198">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D198" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3980,10 +3986,10 @@
         <v>237</v>
       </c>
       <c r="C199">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D199" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3994,10 +4000,10 @@
         <v>237</v>
       </c>
       <c r="C200">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D200" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,13 +4011,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C201">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D201" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4022,10 +4028,10 @@
         <v>237</v>
       </c>
       <c r="C202">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D202" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4033,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C203">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D203" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4050,10 +4056,10 @@
         <v>237</v>
       </c>
       <c r="C204">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D204" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4061,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C205">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D205" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4075,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C206">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,10 +4098,10 @@
         <v>237</v>
       </c>
       <c r="C207">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D207" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C208">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D208" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4120,10 +4126,10 @@
         <v>237</v>
       </c>
       <c r="C209">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D209" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,10 +4140,10 @@
         <v>237</v>
       </c>
       <c r="C210">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D210" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,10 +4154,10 @@
         <v>237</v>
       </c>
       <c r="C211">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D211" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,10 +4168,10 @@
         <v>237</v>
       </c>
       <c r="C212">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D212" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4176,10 +4182,10 @@
         <v>237</v>
       </c>
       <c r="C213">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="D213" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4190,10 +4196,10 @@
         <v>237</v>
       </c>
       <c r="C214">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="D214" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4204,10 +4210,10 @@
         <v>237</v>
       </c>
       <c r="C215">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D215" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4218,10 +4224,10 @@
         <v>237</v>
       </c>
       <c r="C216">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="D216" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4232,10 +4238,10 @@
         <v>237</v>
       </c>
       <c r="C217">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D217" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4246,10 +4252,10 @@
         <v>237</v>
       </c>
       <c r="C218">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="D218" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,10 +4266,10 @@
         <v>237</v>
       </c>
       <c r="C219">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D219" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4274,10 +4280,10 @@
         <v>237</v>
       </c>
       <c r="C220">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D220" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,10 +4294,10 @@
         <v>237</v>
       </c>
       <c r="C221">
-        <v>2101</v>
+        <v>2074</v>
       </c>
       <c r="D221" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4299,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C222">
-        <v>2102</v>
+        <v>2075</v>
       </c>
       <c r="D222" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4316,10 +4322,10 @@
         <v>237</v>
       </c>
       <c r="C223">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D223" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4327,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C224">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="D224" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4344,10 +4350,10 @@
         <v>237</v>
       </c>
       <c r="C225">
-        <v>3001</v>
+        <v>2103</v>
       </c>
       <c r="D225" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4355,13 +4361,13 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C226">
-        <v>3002</v>
+        <v>2104</v>
       </c>
       <c r="D226" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4372,10 +4378,10 @@
         <v>237</v>
       </c>
       <c r="C227">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D227" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4383,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C228">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D228" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,10 +4406,10 @@
         <v>237</v>
       </c>
       <c r="C229">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D229" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,10 +4420,10 @@
         <v>237</v>
       </c>
       <c r="C230">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D230" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4428,10 +4434,10 @@
         <v>237</v>
       </c>
       <c r="C231">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D231" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4442,10 +4448,10 @@
         <v>237</v>
       </c>
       <c r="C232">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D232" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4456,10 +4462,10 @@
         <v>237</v>
       </c>
       <c r="C233">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="D233" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4467,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C234">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D234" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4481,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C235">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D235" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4495,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C236">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="D236" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4509,13 +4515,13 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C237">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="D237" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4523,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C238">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="D238" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,13 +4543,13 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C239">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D239" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,10 +4560,10 @@
         <v>237</v>
       </c>
       <c r="C240">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="D240" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4565,13 +4571,13 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C241">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="D241" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4582,10 +4588,10 @@
         <v>237</v>
       </c>
       <c r="C242">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="D242" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4593,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C243">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="D243" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4610,10 +4616,10 @@
         <v>237</v>
       </c>
       <c r="C244">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="D244" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4621,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C245">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="D245" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4638,10 +4644,10 @@
         <v>237</v>
       </c>
       <c r="C246">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="D246" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,10 +4658,10 @@
         <v>237</v>
       </c>
       <c r="C247">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="D247" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,10 +4672,10 @@
         <v>237</v>
       </c>
       <c r="C248">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,10 +4686,10 @@
         <v>237</v>
       </c>
       <c r="C249">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,10 +4700,10 @@
         <v>237</v>
       </c>
       <c r="C250">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="D250" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,10 +4714,10 @@
         <v>237</v>
       </c>
       <c r="C251">
-        <v>3031</v>
+        <v>3025</v>
       </c>
       <c r="D251" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4722,10 +4728,10 @@
         <v>237</v>
       </c>
       <c r="C252">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="D252" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4736,10 +4742,10 @@
         <v>237</v>
       </c>
       <c r="C253">
-        <v>4001</v>
+        <v>3031</v>
       </c>
       <c r="D253" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4750,10 +4756,10 @@
         <v>237</v>
       </c>
       <c r="C254">
-        <v>4002</v>
+        <v>3032</v>
       </c>
       <c r="D254" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4761,13 +4767,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C255">
-        <v>5001</v>
+        <v>4001</v>
       </c>
       <c r="D255" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4778,10 +4784,10 @@
         <v>237</v>
       </c>
       <c r="C256">
-        <v>5002</v>
+        <v>4002</v>
       </c>
       <c r="D256" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C257">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="D257" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4803,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C258">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="D258" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,10 +4826,10 @@
         <v>237</v>
       </c>
       <c r="C259">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="D259" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4831,13 +4837,13 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C260">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="D260" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,10 +4854,10 @@
         <v>237</v>
       </c>
       <c r="C261">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="D261" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4862,10 +4868,10 @@
         <v>237</v>
       </c>
       <c r="C262">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="D262" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4876,10 +4882,10 @@
         <v>237</v>
       </c>
       <c r="C263">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="D263" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4887,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C264">
-        <v>7001</v>
+        <v>5008</v>
       </c>
       <c r="D264" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,10 +4910,10 @@
         <v>237</v>
       </c>
       <c r="C265">
-        <v>7002</v>
+        <v>5009</v>
       </c>
       <c r="D265" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,13 +4921,13 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C266">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="D266" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4932,10 +4938,10 @@
         <v>237</v>
       </c>
       <c r="C267">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="D267" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4943,13 +4949,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C268">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="D268" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4960,10 +4966,10 @@
         <v>237</v>
       </c>
       <c r="C269">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="D269" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4971,13 +4977,13 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C270">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="D270" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4988,10 +4994,10 @@
         <v>237</v>
       </c>
       <c r="C271">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="D271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -4999,13 +5005,13 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C272">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="D272" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5016,10 +5022,10 @@
         <v>237</v>
       </c>
       <c r="C273">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="D273" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,10 +5036,10 @@
         <v>237</v>
       </c>
       <c r="C274">
-        <v>7011</v>
+        <v>7009</v>
       </c>
       <c r="D274" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,10 +5050,10 @@
         <v>237</v>
       </c>
       <c r="C275">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C276">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="D276" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5072,10 +5078,10 @@
         <v>237</v>
       </c>
       <c r="C277">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="D277" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5083,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C278">
-        <v>9001</v>
+        <v>7013</v>
       </c>
       <c r="D278" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5100,10 +5106,10 @@
         <v>237</v>
       </c>
       <c r="C279">
-        <v>9002</v>
+        <v>7014</v>
       </c>
       <c r="D279" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5114,10 +5120,10 @@
         <v>237</v>
       </c>
       <c r="C280">
-        <v>9999</v>
+        <v>9001</v>
       </c>
       <c r="D280" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C281">
-        <v>300</v>
+        <v>9002</v>
       </c>
       <c r="D281" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C282">
-        <v>2030</v>
+        <v>9999</v>
       </c>
       <c r="D282" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5156,10 +5162,10 @@
         <v>198</v>
       </c>
       <c r="C283">
-        <v>2055</v>
+        <v>300</v>
       </c>
       <c r="D283" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5170,10 +5176,10 @@
         <v>198</v>
       </c>
       <c r="C284">
-        <v>2072</v>
+        <v>2030</v>
       </c>
       <c r="D284" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5184,10 +5190,10 @@
         <v>198</v>
       </c>
       <c r="C285">
-        <v>2073</v>
+        <v>2055</v>
       </c>
       <c r="D285" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5198,10 +5204,10 @@
         <v>198</v>
       </c>
       <c r="C286">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D286" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5212,10 +5218,10 @@
         <v>198</v>
       </c>
       <c r="C287">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5226,10 +5232,10 @@
         <v>198</v>
       </c>
       <c r="C288">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="D288" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5240,10 +5246,10 @@
         <v>198</v>
       </c>
       <c r="C289">
-        <v>2105</v>
+        <v>2075</v>
       </c>
       <c r="D289" t="s">
-        <v>199</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5254,10 +5260,10 @@
         <v>198</v>
       </c>
       <c r="C290">
-        <v>3021</v>
+        <v>2078</v>
       </c>
       <c r="D290" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5268,10 +5274,10 @@
         <v>198</v>
       </c>
       <c r="C291">
-        <v>3022</v>
+        <v>2105</v>
       </c>
       <c r="D291" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,10 +5288,10 @@
         <v>198</v>
       </c>
       <c r="C292">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="D292" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5296,10 +5302,10 @@
         <v>198</v>
       </c>
       <c r="C293">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="D293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5310,10 +5316,10 @@
         <v>198</v>
       </c>
       <c r="C294">
-        <v>7101</v>
+        <v>3023</v>
       </c>
       <c r="D294" t="s">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5324,10 +5330,10 @@
         <v>198</v>
       </c>
       <c r="C295">
-        <v>7102</v>
+        <v>3032</v>
       </c>
       <c r="D295" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5338,10 +5344,10 @@
         <v>198</v>
       </c>
       <c r="C296">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="D296" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5352,10 +5358,10 @@
         <v>198</v>
       </c>
       <c r="C297">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="D297" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,10 +5372,10 @@
         <v>198</v>
       </c>
       <c r="C298">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="D298" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5380,10 +5386,10 @@
         <v>198</v>
       </c>
       <c r="C299">
-        <v>7106</v>
+        <v>7104</v>
       </c>
       <c r="D299" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5394,10 +5400,10 @@
         <v>198</v>
       </c>
       <c r="C300">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D300" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5408,10 +5414,10 @@
         <v>198</v>
       </c>
       <c r="C301">
-        <v>7201</v>
+        <v>7106</v>
       </c>
       <c r="D301" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5422,10 +5428,10 @@
         <v>198</v>
       </c>
       <c r="C302">
-        <v>7202</v>
+        <v>7107</v>
       </c>
       <c r="D302" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,10 +5442,10 @@
         <v>198</v>
       </c>
       <c r="C303">
-        <v>7203</v>
+        <v>7201</v>
       </c>
       <c r="D303" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,10 +5456,10 @@
         <v>198</v>
       </c>
       <c r="C304">
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="D304" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5464,10 +5470,10 @@
         <v>198</v>
       </c>
       <c r="C305">
-        <v>7205</v>
+        <v>7203</v>
       </c>
       <c r="D305" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5478,10 +5484,10 @@
         <v>198</v>
       </c>
       <c r="C306">
-        <v>7206</v>
+        <v>7204</v>
       </c>
       <c r="D306" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5492,10 +5498,10 @@
         <v>198</v>
       </c>
       <c r="C307">
-        <v>7207</v>
+        <v>7205</v>
       </c>
       <c r="D307" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5506,38 +5512,38 @@
         <v>198</v>
       </c>
       <c r="C308">
-        <v>7255</v>
+        <v>7206</v>
       </c>
       <c r="D308" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C309">
-        <v>300</v>
+        <v>7207</v>
       </c>
       <c r="D309" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="C310">
-        <v>310</v>
+        <v>7255</v>
       </c>
       <c r="D310" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -5548,10 +5554,10 @@
         <v>161</v>
       </c>
       <c r="C311">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D311" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -5562,10 +5568,10 @@
         <v>161</v>
       </c>
       <c r="C312">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="D312" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -5576,10 +5582,10 @@
         <v>161</v>
       </c>
       <c r="C313">
-        <v>3003</v>
+        <v>311</v>
       </c>
       <c r="D313" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -5590,10 +5596,10 @@
         <v>161</v>
       </c>
       <c r="C314">
-        <v>3006</v>
+        <v>325</v>
       </c>
       <c r="D314" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,10 +5610,10 @@
         <v>161</v>
       </c>
       <c r="C315">
-        <v>3110</v>
+        <v>3003</v>
       </c>
       <c r="D315" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -5618,10 +5624,10 @@
         <v>161</v>
       </c>
       <c r="C316">
-        <v>3111</v>
+        <v>3006</v>
       </c>
       <c r="D316" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5632,10 +5638,10 @@
         <v>161</v>
       </c>
       <c r="C317">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D317" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5646,10 +5652,10 @@
         <v>161</v>
       </c>
       <c r="C318">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D318" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,10 +5666,10 @@
         <v>161</v>
       </c>
       <c r="C319">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D319" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,13 +5677,13 @@
         <v>160</v>
       </c>
       <c r="B320" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C320">
-        <v>311</v>
+        <v>3113</v>
       </c>
       <c r="D320" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5685,13 +5691,13 @@
         <v>160</v>
       </c>
       <c r="B321" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C321">
-        <v>300</v>
+        <v>3114</v>
       </c>
       <c r="D321" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5702,10 +5708,10 @@
         <v>167</v>
       </c>
       <c r="C322">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D322" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5716,10 +5722,10 @@
         <v>167</v>
       </c>
       <c r="C323">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D323" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5730,10 +5736,10 @@
         <v>167</v>
       </c>
       <c r="C324">
-        <v>3001</v>
+        <v>310</v>
       </c>
       <c r="D324" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,10 +5750,10 @@
         <v>167</v>
       </c>
       <c r="C325">
-        <v>3002</v>
+        <v>325</v>
       </c>
       <c r="D325" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5758,10 +5764,10 @@
         <v>167</v>
       </c>
       <c r="C326">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="D326" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5772,10 +5778,10 @@
         <v>167</v>
       </c>
       <c r="C327">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="D327" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5786,10 +5792,10 @@
         <v>167</v>
       </c>
       <c r="C328">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="D328" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5800,10 +5806,10 @@
         <v>167</v>
       </c>
       <c r="C329">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="D329" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5814,10 +5820,10 @@
         <v>167</v>
       </c>
       <c r="C330">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D330" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5828,10 +5834,10 @@
         <v>167</v>
       </c>
       <c r="C331">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="D331" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5842,10 +5848,10 @@
         <v>167</v>
       </c>
       <c r="C332">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="D332" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5856,10 +5862,10 @@
         <v>167</v>
       </c>
       <c r="C333">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="D333" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,10 +5876,10 @@
         <v>167</v>
       </c>
       <c r="C334">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="D334" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5884,10 +5890,10 @@
         <v>167</v>
       </c>
       <c r="C335">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="D335" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5898,10 +5904,10 @@
         <v>167</v>
       </c>
       <c r="C336">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="D336" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,10 +5918,10 @@
         <v>167</v>
       </c>
       <c r="C337">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="D337" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,10 +5932,10 @@
         <v>167</v>
       </c>
       <c r="C338">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="D338" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5940,10 +5946,10 @@
         <v>167</v>
       </c>
       <c r="C339">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="D339" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5954,10 +5960,10 @@
         <v>167</v>
       </c>
       <c r="C340">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="D340" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,10 +5974,10 @@
         <v>167</v>
       </c>
       <c r="C341">
-        <v>3117</v>
+        <v>3016</v>
       </c>
       <c r="D341" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5982,10 +5988,10 @@
         <v>167</v>
       </c>
       <c r="C342">
-        <v>3118</v>
+        <v>3017</v>
       </c>
       <c r="D342" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5996,10 +6002,10 @@
         <v>167</v>
       </c>
       <c r="C343">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="D343" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6010,10 +6016,10 @@
         <v>167</v>
       </c>
       <c r="C344">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="D344" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6024,10 +6030,10 @@
         <v>167</v>
       </c>
       <c r="C345">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="D345" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6038,10 +6044,10 @@
         <v>167</v>
       </c>
       <c r="C346">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="D346" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,10 +6058,10 @@
         <v>167</v>
       </c>
       <c r="C347">
-        <v>5001</v>
+        <v>3121</v>
       </c>
       <c r="D347" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6066,10 +6072,10 @@
         <v>167</v>
       </c>
       <c r="C348">
-        <v>5002</v>
+        <v>3122</v>
       </c>
       <c r="D348" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,10 +6086,10 @@
         <v>167</v>
       </c>
       <c r="C349">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="D349" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,10 +6100,10 @@
         <v>167</v>
       </c>
       <c r="C350">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="D350" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6108,10 +6114,10 @@
         <v>167</v>
       </c>
       <c r="C351">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="D351" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6122,10 +6128,10 @@
         <v>167</v>
       </c>
       <c r="C352">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="D352" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6136,10 +6142,10 @@
         <v>167</v>
       </c>
       <c r="C353">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="D353" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6150,10 +6156,10 @@
         <v>167</v>
       </c>
       <c r="C354">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="D354" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6164,10 +6170,10 @@
         <v>167</v>
       </c>
       <c r="C355">
-        <v>7001</v>
+        <v>5007</v>
       </c>
       <c r="D355" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6178,10 +6184,10 @@
         <v>167</v>
       </c>
       <c r="C356">
-        <v>7002</v>
+        <v>5008</v>
       </c>
       <c r="D356" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6192,10 +6198,10 @@
         <v>167</v>
       </c>
       <c r="C357">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="D357" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6206,10 +6212,10 @@
         <v>167</v>
       </c>
       <c r="C358">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="D358" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6220,10 +6226,10 @@
         <v>167</v>
       </c>
       <c r="C359">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="D359" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,10 +6240,10 @@
         <v>167</v>
       </c>
       <c r="C360">
-        <v>7024</v>
+        <v>7004</v>
       </c>
       <c r="D360" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6248,10 +6254,10 @@
         <v>167</v>
       </c>
       <c r="C361">
-        <v>7025</v>
+        <v>7005</v>
       </c>
       <c r="D361" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6262,10 +6268,10 @@
         <v>167</v>
       </c>
       <c r="C362">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="D362" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6276,10 +6282,10 @@
         <v>167</v>
       </c>
       <c r="C363">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="D363" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6290,10 +6296,10 @@
         <v>167</v>
       </c>
       <c r="C364">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="D364" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6304,10 +6310,10 @@
         <v>167</v>
       </c>
       <c r="C365">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="D365" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6318,10 +6324,10 @@
         <v>167</v>
       </c>
       <c r="C366">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="D366" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6332,10 +6338,10 @@
         <v>167</v>
       </c>
       <c r="C367">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="D367" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6343,13 +6349,13 @@
         <v>160</v>
       </c>
       <c r="B368" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="C368">
-        <v>3301</v>
+        <v>7030</v>
       </c>
       <c r="D368" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,13 +6363,13 @@
         <v>160</v>
       </c>
       <c r="B369" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="C369">
-        <v>3302</v>
+        <v>7031</v>
       </c>
       <c r="D369" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6374,10 +6380,10 @@
         <v>222</v>
       </c>
       <c r="C370">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D370" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6388,10 +6394,10 @@
         <v>222</v>
       </c>
       <c r="C371">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="D371" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6402,10 +6408,10 @@
         <v>222</v>
       </c>
       <c r="C372">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D372" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6416,10 +6422,10 @@
         <v>222</v>
       </c>
       <c r="C373">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="D373" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6430,10 +6436,10 @@
         <v>222</v>
       </c>
       <c r="C374">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="D374" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6444,10 +6450,10 @@
         <v>222</v>
       </c>
       <c r="C375">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="D375" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6458,10 +6464,10 @@
         <v>222</v>
       </c>
       <c r="C376">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="D376" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6472,10 +6478,10 @@
         <v>222</v>
       </c>
       <c r="C377">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="D377" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6486,10 +6492,10 @@
         <v>222</v>
       </c>
       <c r="C378">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="D378" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6500,10 +6506,10 @@
         <v>222</v>
       </c>
       <c r="C379">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="D379" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,10 +6520,10 @@
         <v>222</v>
       </c>
       <c r="C380">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="D380" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6528,10 +6534,10 @@
         <v>222</v>
       </c>
       <c r="C381">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="D381" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -6542,10 +6548,10 @@
         <v>222</v>
       </c>
       <c r="C382">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="D382" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -6556,10 +6562,10 @@
         <v>222</v>
       </c>
       <c r="C383">
-        <v>7300</v>
+        <v>3314</v>
       </c>
       <c r="D383" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
@@ -6570,10 +6576,10 @@
         <v>222</v>
       </c>
       <c r="C384">
-        <v>7301</v>
+        <v>3315</v>
       </c>
       <c r="D384" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
@@ -6584,9 +6590,37 @@
         <v>222</v>
       </c>
       <c r="C385">
+        <v>7300</v>
+      </c>
+      <c r="D385" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>160</v>
+      </c>
+      <c r="B386" t="s">
+        <v>222</v>
+      </c>
+      <c r="C386">
+        <v>7301</v>
+      </c>
+      <c r="D386" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>160</v>
+      </c>
+      <c r="B387" t="s">
+        <v>222</v>
+      </c>
+      <c r="C387">
         <v>7302</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D387" t="s">
         <v>224</v>
       </c>
     </row>

--- a/example/Logistics/logistics_status.xlsx
+++ b/example/Logistics/logistics_status.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen.hong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SDK_PHP\example\Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="262">
   <si>
     <t>CVS</t>
   </si>
@@ -504,24 +504,6 @@
   </si>
   <si>
     <t>HOME</t>
-  </si>
-  <si>
-    <t>ECAN</t>
-  </si>
-  <si>
-    <t>轉配郵局</t>
-  </si>
-  <si>
-    <t>配送外包</t>
-  </si>
-  <si>
-    <t>再配</t>
-  </si>
-  <si>
-    <t>異常</t>
-  </si>
-  <si>
-    <t>再取</t>
   </si>
   <si>
     <t>TCAT</t>
@@ -574,10 +556,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂單上傳處理中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包裹配送驗收異常-大物流包裝不良(滲漏)</t>
   </si>
   <si>
@@ -855,6 +833,38 @@
   </si>
   <si>
     <t>包裹遺失，進入賠償程序</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郵局已確認資料，可列印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣家未至門市取退貨，可申請宅配配送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣家未至門市取退貨，退貨包裹已進入宅配流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨物進店後發生異常提早退貨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貨件破損</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>門市驗收異常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1220,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1235,31 +1245,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C5">
         <v>300</v>
@@ -1281,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1295,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C7">
         <v>2105</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C8">
         <v>3018</v>
@@ -1323,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C9">
         <v>3019</v>
@@ -1337,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C10">
         <v>3020</v>
@@ -1351,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C11">
         <v>3021</v>
@@ -1365,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>3022</v>
@@ -1379,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C13">
         <v>3023</v>
@@ -1393,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C14">
         <v>3024</v>
@@ -1407,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C15">
         <v>3025</v>
@@ -1421,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16">
         <v>3029</v>
@@ -1435,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C17">
         <v>3031</v>
@@ -1449,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C18">
         <v>3032</v>
@@ -1463,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C19">
         <v>4001</v>
@@ -1477,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C20">
         <v>4002</v>
@@ -1491,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C21">
         <v>5009</v>
@@ -1505,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C22">
         <v>7006</v>
@@ -1519,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C23">
         <v>7007</v>
@@ -1533,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C24">
         <v>7008</v>
@@ -1547,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C25">
         <v>7009</v>
@@ -1561,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>7010</v>
@@ -1575,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C27">
         <v>7011</v>
       </c>
       <c r="D27" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C28">
         <v>7012</v>
@@ -1603,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>7013</v>
@@ -1617,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C30">
         <v>7014</v>
@@ -1631,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C31">
         <v>7015</v>
@@ -1645,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C32">
         <v>7016</v>
@@ -1659,41 +1669,41 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C33">
         <v>7032</v>
       </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="C34">
-        <v>300</v>
+        <v>7034</v>
       </c>
       <c r="D34" t="s">
-        <v>1</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="C35">
-        <v>310</v>
+        <v>7036</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,10 +1714,10 @@
         <v>26</v>
       </c>
       <c r="C36">
-        <v>2001</v>
+        <v>300</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,10 +1728,10 @@
         <v>26</v>
       </c>
       <c r="C37">
-        <v>2002</v>
+        <v>310</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,10 +1742,10 @@
         <v>26</v>
       </c>
       <c r="C38">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,10 +1756,10 @@
         <v>26</v>
       </c>
       <c r="C39">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,10 +1770,10 @@
         <v>26</v>
       </c>
       <c r="C40">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,10 +1784,10 @@
         <v>26</v>
       </c>
       <c r="C41">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,10 +1798,10 @@
         <v>26</v>
       </c>
       <c r="C42">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,10 +1812,10 @@
         <v>26</v>
       </c>
       <c r="C43">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,10 +1826,10 @@
         <v>26</v>
       </c>
       <c r="C44">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,10 +1840,10 @@
         <v>26</v>
       </c>
       <c r="C45">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,10 +1854,10 @@
         <v>26</v>
       </c>
       <c r="C46">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1858,10 +1868,10 @@
         <v>26</v>
       </c>
       <c r="C47">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,10 +1882,10 @@
         <v>26</v>
       </c>
       <c r="C48">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,10 +1896,10 @@
         <v>26</v>
       </c>
       <c r="C49">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,10 +1910,10 @@
         <v>26</v>
       </c>
       <c r="C50">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="C51">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,10 +1938,10 @@
         <v>26</v>
       </c>
       <c r="C52">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,10 +1952,10 @@
         <v>26</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,10 +1966,10 @@
         <v>26</v>
       </c>
       <c r="C54">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1970,10 +1980,10 @@
         <v>26</v>
       </c>
       <c r="C55">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,10 +1994,10 @@
         <v>26</v>
       </c>
       <c r="C56">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,10 +2008,10 @@
         <v>26</v>
       </c>
       <c r="C57">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,10 +2022,10 @@
         <v>26</v>
       </c>
       <c r="C58">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2026,10 +2036,10 @@
         <v>26</v>
       </c>
       <c r="C59">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2040,10 +2050,10 @@
         <v>26</v>
       </c>
       <c r="C60">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2054,10 +2064,10 @@
         <v>26</v>
       </c>
       <c r="C61">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D61" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2068,10 +2078,10 @@
         <v>26</v>
       </c>
       <c r="C62">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2082,10 +2092,10 @@
         <v>26</v>
       </c>
       <c r="C63">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2096,10 +2106,10 @@
         <v>26</v>
       </c>
       <c r="C64">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2110,10 +2120,10 @@
         <v>26</v>
       </c>
       <c r="C65">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2124,10 +2134,10 @@
         <v>26</v>
       </c>
       <c r="C66">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,10 +2148,10 @@
         <v>26</v>
       </c>
       <c r="C67">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,10 +2162,10 @@
         <v>26</v>
       </c>
       <c r="C68">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2166,10 +2176,10 @@
         <v>26</v>
       </c>
       <c r="C69">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="D69" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,10 +2190,10 @@
         <v>26</v>
       </c>
       <c r="C70">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2194,10 +2204,10 @@
         <v>26</v>
       </c>
       <c r="C71">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D71" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2208,10 +2218,10 @@
         <v>26</v>
       </c>
       <c r="C72">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="D72" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2222,10 +2232,10 @@
         <v>26</v>
       </c>
       <c r="C73">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2236,10 +2246,10 @@
         <v>26</v>
       </c>
       <c r="C74">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2250,10 +2260,10 @@
         <v>26</v>
       </c>
       <c r="C75">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2264,10 +2274,10 @@
         <v>26</v>
       </c>
       <c r="C76">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2278,10 +2288,10 @@
         <v>26</v>
       </c>
       <c r="C77">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,10 +2302,10 @@
         <v>26</v>
       </c>
       <c r="C78">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="D78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,10 +2316,10 @@
         <v>26</v>
       </c>
       <c r="C79">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2320,10 +2330,10 @@
         <v>26</v>
       </c>
       <c r="C80">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="D80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2334,10 +2344,10 @@
         <v>26</v>
       </c>
       <c r="C81">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2348,10 +2358,10 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2362,10 +2372,10 @@
         <v>26</v>
       </c>
       <c r="C83">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2376,10 +2386,10 @@
         <v>26</v>
       </c>
       <c r="C84">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2390,10 +2400,10 @@
         <v>26</v>
       </c>
       <c r="C85">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,10 +2414,10 @@
         <v>26</v>
       </c>
       <c r="C86">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D86" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,10 +2428,10 @@
         <v>26</v>
       </c>
       <c r="C87">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,10 +2442,10 @@
         <v>26</v>
       </c>
       <c r="C88">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="D88" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,10 +2456,10 @@
         <v>26</v>
       </c>
       <c r="C89">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,10 +2470,10 @@
         <v>26</v>
       </c>
       <c r="C90">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,10 +2484,10 @@
         <v>26</v>
       </c>
       <c r="C91">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D91" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,10 +2498,10 @@
         <v>26</v>
       </c>
       <c r="C92">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2502,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="C93">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,10 +2526,10 @@
         <v>26</v>
       </c>
       <c r="C94">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,10 +2540,10 @@
         <v>26</v>
       </c>
       <c r="C95">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="C96">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="D96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,10 +2568,10 @@
         <v>26</v>
       </c>
       <c r="C97">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D97" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2572,10 +2582,10 @@
         <v>26</v>
       </c>
       <c r="C98">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2586,10 +2596,10 @@
         <v>26</v>
       </c>
       <c r="C99">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D99" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2600,10 +2610,10 @@
         <v>26</v>
       </c>
       <c r="C100">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D100" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2614,10 +2624,10 @@
         <v>26</v>
       </c>
       <c r="C101">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D101" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,10 +2638,10 @@
         <v>26</v>
       </c>
       <c r="C102">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="D102" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,10 +2652,10 @@
         <v>26</v>
       </c>
       <c r="C103">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D103" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,10 +2666,10 @@
         <v>26</v>
       </c>
       <c r="C104">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2670,10 +2680,10 @@
         <v>26</v>
       </c>
       <c r="C105">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="D105" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,10 +2694,10 @@
         <v>26</v>
       </c>
       <c r="C106">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,10 +2708,10 @@
         <v>26</v>
       </c>
       <c r="C107">
-        <v>2094</v>
+        <v>2072</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,10 +2722,10 @@
         <v>26</v>
       </c>
       <c r="C108">
-        <v>2095</v>
+        <v>2075</v>
       </c>
       <c r="D108" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,10 +2736,10 @@
         <v>26</v>
       </c>
       <c r="C109">
-        <v>4001</v>
+        <v>2094</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2740,10 +2750,10 @@
         <v>26</v>
       </c>
       <c r="C110">
-        <v>4002</v>
+        <v>2095</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2754,10 +2764,10 @@
         <v>26</v>
       </c>
       <c r="C111">
-        <v>4003</v>
+        <v>4001</v>
       </c>
       <c r="D111" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2768,10 +2778,10 @@
         <v>26</v>
       </c>
       <c r="C112">
-        <v>4004</v>
+        <v>4002</v>
       </c>
       <c r="D112" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2782,10 +2792,10 @@
         <v>26</v>
       </c>
       <c r="C113">
-        <v>7017</v>
+        <v>4003</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,10 +2806,10 @@
         <v>26</v>
       </c>
       <c r="C114">
-        <v>7018</v>
+        <v>4004</v>
       </c>
       <c r="D114" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2810,10 +2820,10 @@
         <v>26</v>
       </c>
       <c r="C115">
-        <v>7021</v>
+        <v>7017</v>
       </c>
       <c r="D115" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2824,10 +2834,10 @@
         <v>26</v>
       </c>
       <c r="C116">
-        <v>7022</v>
+        <v>7018</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2838,10 +2848,10 @@
         <v>26</v>
       </c>
       <c r="C117">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="D117" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2849,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>2030</v>
+        <v>7022</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2863,27 +2873,27 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C119">
-        <v>2067</v>
+        <v>7023</v>
       </c>
       <c r="D119" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C120">
-        <v>2068</v>
+        <v>7038</v>
       </c>
       <c r="D120" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,10 +2904,10 @@
         <v>101</v>
       </c>
       <c r="C121">
-        <v>2069</v>
+        <v>2030</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,10 +2918,10 @@
         <v>101</v>
       </c>
       <c r="C122">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="D122" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,10 +2932,10 @@
         <v>101</v>
       </c>
       <c r="C123">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,10 +2946,10 @@
         <v>101</v>
       </c>
       <c r="C124">
-        <v>2076</v>
+        <v>2069</v>
       </c>
       <c r="D124" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,10 +2960,10 @@
         <v>101</v>
       </c>
       <c r="C125">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,10 +2974,10 @@
         <v>101</v>
       </c>
       <c r="C126">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,10 +2988,10 @@
         <v>101</v>
       </c>
       <c r="C127">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D127" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,10 +3002,10 @@
         <v>101</v>
       </c>
       <c r="C128">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D128" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3016,10 @@
         <v>101</v>
       </c>
       <c r="C129">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D129" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,10 +3030,10 @@
         <v>101</v>
       </c>
       <c r="C130">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D130" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,10 +3044,10 @@
         <v>101</v>
       </c>
       <c r="C131">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D131" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,10 +3058,10 @@
         <v>101</v>
       </c>
       <c r="C132">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D132" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,10 +3072,10 @@
         <v>101</v>
       </c>
       <c r="C133">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D133" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,10 +3086,10 @@
         <v>101</v>
       </c>
       <c r="C134">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D134" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,10 +3100,10 @@
         <v>101</v>
       </c>
       <c r="C135">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,10 +3114,10 @@
         <v>101</v>
       </c>
       <c r="C136">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D136" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,10 +3128,10 @@
         <v>101</v>
       </c>
       <c r="C137">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,10 +3142,10 @@
         <v>101</v>
       </c>
       <c r="C138">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="D138" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,10 +3156,10 @@
         <v>101</v>
       </c>
       <c r="C139">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="D139" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,10 +3170,10 @@
         <v>101</v>
       </c>
       <c r="C140">
-        <v>2101</v>
+        <v>2089</v>
       </c>
       <c r="D140" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,10 +3184,10 @@
         <v>101</v>
       </c>
       <c r="C141">
-        <v>2102</v>
+        <v>2092</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,10 +3198,10 @@
         <v>101</v>
       </c>
       <c r="C142">
-        <v>2103</v>
+        <v>2093</v>
       </c>
       <c r="D142" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,10 +3212,10 @@
         <v>101</v>
       </c>
       <c r="C143">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D143" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,10 +3226,10 @@
         <v>101</v>
       </c>
       <c r="C144">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D144" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3230,10 +3240,10 @@
         <v>101</v>
       </c>
       <c r="C145">
-        <v>7019</v>
+        <v>2103</v>
       </c>
       <c r="D145" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3244,10 +3254,10 @@
         <v>101</v>
       </c>
       <c r="C146">
-        <v>7020</v>
+        <v>2104</v>
       </c>
       <c r="D146" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3255,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C147">
-        <v>300</v>
+        <v>2105</v>
       </c>
       <c r="D147" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3269,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C148">
-        <v>310</v>
+        <v>7019</v>
       </c>
       <c r="D148" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3283,55 +3293,55 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C149">
-        <v>311</v>
+        <v>7020</v>
       </c>
       <c r="D149" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="C150">
-        <v>325</v>
+        <v>2096</v>
       </c>
       <c r="D150" t="s">
-        <v>127</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="C151">
-        <v>2000</v>
+        <v>2097</v>
       </c>
       <c r="D151" t="s">
-        <v>128</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="B152" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="C152">
-        <v>2001</v>
+        <v>7038</v>
       </c>
       <c r="D152" t="s">
-        <v>91</v>
+        <v>261</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3339,13 +3349,13 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C153">
-        <v>2002</v>
+        <v>300</v>
       </c>
       <c r="D153" t="s">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C154">
-        <v>2003</v>
+        <v>310</v>
       </c>
       <c r="D154" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3367,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C155">
-        <v>2004</v>
+        <v>311</v>
       </c>
       <c r="D155" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3381,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C156">
-        <v>2005</v>
+        <v>325</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3395,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C157">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="D157" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3409,13 +3419,13 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C158">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C159">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C160">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="D160" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C161">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D161" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C162">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3479,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C163">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="D163" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3493,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C164">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3507,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C165">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="D165" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3521,13 +3531,13 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C166">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D166" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3535,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C167">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3549,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C168">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C169">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3577,13 +3587,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C170">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D170" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3591,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C171">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D171" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -3605,13 +3615,13 @@
         <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C172">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="D172" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -3619,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C173">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -3633,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C174">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="D174" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -3647,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C175">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C176">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="D176" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C177">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="D177" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C178">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="D178" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -3703,13 +3713,13 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C179">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D179" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -3717,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C180">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -3731,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C181">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D181" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -3745,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C182">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -3759,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C183">
-        <v>2033</v>
+        <v>2027</v>
       </c>
       <c r="D183" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C184">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="D184" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C185">
-        <v>2035</v>
+        <v>2029</v>
       </c>
       <c r="D185" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C186">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="D186" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -3815,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C187">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="D187" t="s">
-        <v>258</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C188">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="D188" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C189">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="D189" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -3857,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C190">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="D190" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C191">
-        <v>2041</v>
+        <v>2035</v>
       </c>
       <c r="D191" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,13 +3895,13 @@
         <v>0</v>
       </c>
       <c r="B192" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C192">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="D192" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C193">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D193" t="s">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C194">
-        <v>2045</v>
+        <v>2038</v>
       </c>
       <c r="D194" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -3927,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C195">
-        <v>2046</v>
+        <v>2039</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -3944,10 +3954,10 @@
         <v>237</v>
       </c>
       <c r="C196">
-        <v>2047</v>
+        <v>2040</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="B197" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C197">
-        <v>2048</v>
+        <v>2041</v>
       </c>
       <c r="D197" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -3969,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C198">
-        <v>2049</v>
+        <v>2042</v>
       </c>
       <c r="D198" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3983,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C199">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="D199" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -3997,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C200">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="D200" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4011,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C201">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="D201" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4025,13 +4035,13 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C202">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="D202" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4039,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C203">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="D203" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4053,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C204">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="D204" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C205">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="D205" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C206">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="D206" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,13 +4105,13 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C207">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="D207" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C208">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="D208" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4123,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C209">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="D209" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4137,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C210">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="D210" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4151,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C211">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D211" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4165,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C212">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="D212" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4179,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C213">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="D213" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="B214" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C214">
-        <v>2067</v>
+        <v>2060</v>
       </c>
       <c r="D214" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,13 +4217,13 @@
         <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C215">
-        <v>2068</v>
+        <v>2061</v>
       </c>
       <c r="D215" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4221,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C216">
-        <v>2069</v>
+        <v>2062</v>
       </c>
       <c r="D216" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4235,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="B217" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C217">
-        <v>2070</v>
+        <v>2063</v>
       </c>
       <c r="D217" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="B218" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C218">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="D218" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4263,13 +4273,13 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C219">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="D219" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4277,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C220">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4291,13 +4301,13 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C221">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="D221" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C222">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="D222" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C223">
-        <v>2101</v>
+        <v>2070</v>
       </c>
       <c r="D223" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -4333,13 +4343,13 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C224">
-        <v>2102</v>
+        <v>2071</v>
       </c>
       <c r="D224" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -4347,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C225">
-        <v>2103</v>
+        <v>2072</v>
       </c>
       <c r="D225" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4361,13 +4371,13 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C226">
-        <v>2104</v>
+        <v>2073</v>
       </c>
       <c r="D226" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4375,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C227">
-        <v>3001</v>
+        <v>2074</v>
       </c>
       <c r="D227" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C228">
-        <v>3002</v>
+        <v>2075</v>
       </c>
       <c r="D228" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C229">
-        <v>3003</v>
+        <v>2101</v>
       </c>
       <c r="D229" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -4417,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C230">
-        <v>3004</v>
+        <v>2102</v>
       </c>
       <c r="D230" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,13 +4441,13 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C231">
-        <v>3005</v>
+        <v>2103</v>
       </c>
       <c r="D231" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4445,13 +4455,13 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C232">
-        <v>3006</v>
+        <v>2104</v>
       </c>
       <c r="D232" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="B233" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C233">
-        <v>3007</v>
+        <v>3001</v>
       </c>
       <c r="D233" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,10 +4486,10 @@
         <v>237</v>
       </c>
       <c r="C234">
-        <v>3008</v>
+        <v>3002</v>
       </c>
       <c r="D234" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -4487,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C235">
-        <v>3009</v>
+        <v>3003</v>
       </c>
       <c r="D235" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4501,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="B236" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C236">
-        <v>3010</v>
+        <v>3004</v>
       </c>
       <c r="D236" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,13 +4525,13 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C237">
-        <v>3011</v>
+        <v>3005</v>
       </c>
       <c r="D237" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,13 +4539,13 @@
         <v>0</v>
       </c>
       <c r="B238" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C238">
-        <v>3012</v>
+        <v>3006</v>
       </c>
       <c r="D238" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -4543,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="B239" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C239">
-        <v>3013</v>
+        <v>3007</v>
       </c>
       <c r="D239" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -4557,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C240">
-        <v>3014</v>
+        <v>3008</v>
       </c>
       <c r="D240" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,13 +4581,13 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="C241">
-        <v>3015</v>
+        <v>3009</v>
       </c>
       <c r="D241" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,13 +4595,13 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C242">
-        <v>3016</v>
+        <v>3010</v>
       </c>
       <c r="D242" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -4599,13 +4609,13 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C243">
-        <v>3017</v>
+        <v>3011</v>
       </c>
       <c r="D243" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -4613,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C244">
-        <v>3018</v>
+        <v>3012</v>
       </c>
       <c r="D244" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C245">
-        <v>3019</v>
+        <v>3013</v>
       </c>
       <c r="D245" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -4641,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C246">
-        <v>3020</v>
+        <v>3014</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,13 +4665,13 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C247">
-        <v>3021</v>
+        <v>3015</v>
       </c>
       <c r="D247" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -4669,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C248">
-        <v>3022</v>
+        <v>3016</v>
       </c>
       <c r="D248" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C249">
-        <v>3023</v>
+        <v>3017</v>
       </c>
       <c r="D249" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,13 +4707,13 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C250">
-        <v>3024</v>
+        <v>3018</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C251">
-        <v>3025</v>
+        <v>3019</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,13 +4735,13 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C252">
-        <v>3029</v>
+        <v>3020</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,13 +4749,13 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C253">
-        <v>3031</v>
+        <v>3021</v>
       </c>
       <c r="D253" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -4753,13 +4763,13 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C254">
-        <v>3032</v>
+        <v>3022</v>
       </c>
       <c r="D254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -4767,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C255">
-        <v>4001</v>
+        <v>3023</v>
       </c>
       <c r="D255" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -4781,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C256">
-        <v>4002</v>
+        <v>3024</v>
       </c>
       <c r="D256" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,13 +4805,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="C257">
-        <v>5001</v>
+        <v>3025</v>
       </c>
       <c r="D257" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,13 +4819,13 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C258">
-        <v>5002</v>
+        <v>3029</v>
       </c>
       <c r="D258" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C259">
-        <v>5003</v>
+        <v>3031</v>
       </c>
       <c r="D259" t="s">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -4837,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C260">
-        <v>5004</v>
+        <v>3032</v>
       </c>
       <c r="D260" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,13 +4861,13 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C261">
-        <v>5005</v>
+        <v>4001</v>
       </c>
       <c r="D261" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4865,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C262">
-        <v>5006</v>
+        <v>4002</v>
       </c>
       <c r="D262" t="s">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,13 +4889,13 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C263">
-        <v>5007</v>
+        <v>5001</v>
       </c>
       <c r="D263" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -4893,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C264">
-        <v>5008</v>
+        <v>5002</v>
       </c>
       <c r="D264" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C265">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,13 +4931,13 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C266">
-        <v>7001</v>
+        <v>5004</v>
       </c>
       <c r="D266" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,13 +4945,13 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C267">
-        <v>7002</v>
+        <v>5005</v>
       </c>
       <c r="D267" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C268">
-        <v>7003</v>
+        <v>5006</v>
       </c>
       <c r="D268" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C269">
-        <v>7004</v>
+        <v>5007</v>
       </c>
       <c r="D269" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,13 +4987,13 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C270">
-        <v>7005</v>
+        <v>5008</v>
       </c>
       <c r="D270" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C271">
-        <v>7006</v>
+        <v>5009</v>
       </c>
       <c r="D271" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C272">
-        <v>7007</v>
+        <v>7001</v>
       </c>
       <c r="D272" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C273">
-        <v>7008</v>
+        <v>7002</v>
       </c>
       <c r="D273" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,13 +5043,13 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C274">
-        <v>7009</v>
+        <v>7003</v>
       </c>
       <c r="D274" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,13 +5057,13 @@
         <v>0</v>
       </c>
       <c r="B275" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C275">
-        <v>7010</v>
+        <v>7004</v>
       </c>
       <c r="D275" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C276">
-        <v>7011</v>
+        <v>7005</v>
       </c>
       <c r="D276" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5075,13 +5085,13 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C277">
-        <v>7012</v>
+        <v>7006</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5089,13 +5099,13 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C278">
-        <v>7013</v>
+        <v>7007</v>
       </c>
       <c r="D278" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5103,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C279">
-        <v>7014</v>
+        <v>7008</v>
       </c>
       <c r="D279" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,13 +5127,13 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C280">
-        <v>9001</v>
+        <v>7009</v>
       </c>
       <c r="D280" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5131,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C281">
-        <v>9002</v>
+        <v>7010</v>
       </c>
       <c r="D281" t="s">
-        <v>158</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C282">
-        <v>9999</v>
+        <v>7011</v>
       </c>
       <c r="D282" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C283">
-        <v>300</v>
+        <v>7012</v>
       </c>
       <c r="D283" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="C284">
-        <v>2030</v>
+        <v>7013</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5187,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C285">
-        <v>2055</v>
+        <v>7014</v>
       </c>
       <c r="D285" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,13 +5211,13 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C286">
-        <v>2072</v>
+        <v>9001</v>
       </c>
       <c r="D286" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C287">
-        <v>2073</v>
+        <v>9002</v>
       </c>
       <c r="D287" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="C288">
-        <v>2074</v>
+        <v>9999</v>
       </c>
       <c r="D288" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,13 +5253,13 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C289">
-        <v>2075</v>
+        <v>300</v>
       </c>
       <c r="D289" t="s">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5257,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C290">
-        <v>2078</v>
+        <v>2030</v>
       </c>
       <c r="D290" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5271,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C291">
-        <v>2105</v>
+        <v>2055</v>
       </c>
       <c r="D291" t="s">
-        <v>199</v>
+        <v>98</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5285,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C292">
-        <v>3021</v>
+        <v>2072</v>
       </c>
       <c r="D292" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C293">
-        <v>3022</v>
+        <v>2073</v>
       </c>
       <c r="D293" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5313,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C294">
-        <v>3023</v>
+        <v>2074</v>
       </c>
       <c r="D294" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5327,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C295">
-        <v>3032</v>
+        <v>2075</v>
       </c>
       <c r="D295" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5341,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C296">
-        <v>7101</v>
+        <v>2078</v>
       </c>
       <c r="D296" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C297">
-        <v>7102</v>
+        <v>2105</v>
       </c>
       <c r="D297" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="B298" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C298">
-        <v>7103</v>
+        <v>3021</v>
       </c>
       <c r="D298" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="B299" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C299">
-        <v>7104</v>
+        <v>3022</v>
       </c>
       <c r="D299" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5397,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="B300" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C300">
-        <v>7105</v>
+        <v>3023</v>
       </c>
       <c r="D300" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5411,13 +5421,13 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C301">
-        <v>7106</v>
+        <v>3032</v>
       </c>
       <c r="D301" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5425,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="B302" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C302">
-        <v>7107</v>
+        <v>7101</v>
       </c>
       <c r="D302" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,13 +5449,13 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C303">
-        <v>7201</v>
+        <v>7102</v>
       </c>
       <c r="D303" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C304">
-        <v>7202</v>
+        <v>7103</v>
       </c>
       <c r="D304" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C305">
-        <v>7203</v>
+        <v>7104</v>
       </c>
       <c r="D305" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,13 +5491,13 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C306">
-        <v>7204</v>
+        <v>7105</v>
       </c>
       <c r="D306" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C307">
-        <v>7205</v>
+        <v>7106</v>
       </c>
       <c r="D307" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C308">
-        <v>7206</v>
+        <v>7107</v>
       </c>
       <c r="D308" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C309">
-        <v>7207</v>
+        <v>7201</v>
       </c>
       <c r="D309" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,97 +5547,97 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C310">
-        <v>7255</v>
+        <v>7202</v>
       </c>
       <c r="D310" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C311">
-        <v>300</v>
+        <v>7203</v>
       </c>
       <c r="D311" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C312">
-        <v>310</v>
+        <v>7204</v>
       </c>
       <c r="D312" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C313">
-        <v>311</v>
+        <v>7205</v>
       </c>
       <c r="D313" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C314">
-        <v>325</v>
+        <v>7206</v>
       </c>
       <c r="D314" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C315">
-        <v>3003</v>
+        <v>7207</v>
       </c>
       <c r="D315" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="C316">
-        <v>3006</v>
+        <v>7255</v>
       </c>
       <c r="D316" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -5638,10 +5648,10 @@
         <v>161</v>
       </c>
       <c r="C317">
-        <v>3110</v>
+        <v>311</v>
       </c>
       <c r="D317" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,10 +5662,10 @@
         <v>161</v>
       </c>
       <c r="C318">
-        <v>3111</v>
+        <v>300</v>
       </c>
       <c r="D318" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -5666,10 +5676,10 @@
         <v>161</v>
       </c>
       <c r="C319">
-        <v>3112</v>
+        <v>310</v>
       </c>
       <c r="D319" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -5680,10 +5690,10 @@
         <v>161</v>
       </c>
       <c r="C320">
-        <v>3113</v>
+        <v>325</v>
       </c>
       <c r="D320" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,10 +5704,10 @@
         <v>161</v>
       </c>
       <c r="C321">
-        <v>3114</v>
+        <v>3001</v>
       </c>
       <c r="D321" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,13 +5715,13 @@
         <v>160</v>
       </c>
       <c r="B322" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C322">
-        <v>311</v>
+        <v>3002</v>
       </c>
       <c r="D322" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,13 +5729,13 @@
         <v>160</v>
       </c>
       <c r="B323" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C323">
-        <v>300</v>
+        <v>3003</v>
       </c>
       <c r="D323" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -5733,13 +5743,13 @@
         <v>160</v>
       </c>
       <c r="B324" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C324">
-        <v>310</v>
+        <v>3004</v>
       </c>
       <c r="D324" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -5747,13 +5757,13 @@
         <v>160</v>
       </c>
       <c r="B325" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C325">
-        <v>325</v>
+        <v>3005</v>
       </c>
       <c r="D325" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,13 +5771,13 @@
         <v>160</v>
       </c>
       <c r="B326" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C326">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="D326" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,13 +5785,13 @@
         <v>160</v>
       </c>
       <c r="B327" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C327">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="D327" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,13 +5799,13 @@
         <v>160</v>
       </c>
       <c r="B328" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C328">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="D328" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,13 +5813,13 @@
         <v>160</v>
       </c>
       <c r="B329" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C329">
-        <v>3004</v>
+        <v>3009</v>
       </c>
       <c r="D329" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -5817,13 +5827,13 @@
         <v>160</v>
       </c>
       <c r="B330" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C330">
-        <v>3005</v>
+        <v>3010</v>
       </c>
       <c r="D330" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -5831,13 +5841,13 @@
         <v>160</v>
       </c>
       <c r="B331" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C331">
-        <v>3006</v>
+        <v>3011</v>
       </c>
       <c r="D331" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -5845,13 +5855,13 @@
         <v>160</v>
       </c>
       <c r="B332" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C332">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="D332" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,13 +5869,13 @@
         <v>160</v>
       </c>
       <c r="B333" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C333">
-        <v>3008</v>
+        <v>3013</v>
       </c>
       <c r="D333" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,13 +5883,13 @@
         <v>160</v>
       </c>
       <c r="B334" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C334">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="D334" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,13 +5897,13 @@
         <v>160</v>
       </c>
       <c r="B335" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C335">
-        <v>3010</v>
+        <v>3015</v>
       </c>
       <c r="D335" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,13 +5911,13 @@
         <v>160</v>
       </c>
       <c r="B336" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C336">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="D336" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,13 +5925,13 @@
         <v>160</v>
       </c>
       <c r="B337" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C337">
-        <v>3012</v>
+        <v>3017</v>
       </c>
       <c r="D337" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,13 +5939,13 @@
         <v>160</v>
       </c>
       <c r="B338" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C338">
-        <v>3013</v>
+        <v>3117</v>
       </c>
       <c r="D338" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,13 +5953,13 @@
         <v>160</v>
       </c>
       <c r="B339" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C339">
-        <v>3014</v>
+        <v>3118</v>
       </c>
       <c r="D339" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,13 +5967,13 @@
         <v>160</v>
       </c>
       <c r="B340" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C340">
-        <v>3015</v>
+        <v>3119</v>
       </c>
       <c r="D340" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,13 +5981,13 @@
         <v>160</v>
       </c>
       <c r="B341" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C341">
-        <v>3016</v>
+        <v>3120</v>
       </c>
       <c r="D341" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,13 +5995,13 @@
         <v>160</v>
       </c>
       <c r="B342" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C342">
-        <v>3017</v>
+        <v>3121</v>
       </c>
       <c r="D342" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -5999,13 +6009,13 @@
         <v>160</v>
       </c>
       <c r="B343" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C343">
-        <v>3117</v>
+        <v>3122</v>
       </c>
       <c r="D343" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,13 +6023,13 @@
         <v>160</v>
       </c>
       <c r="B344" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C344">
-        <v>3118</v>
+        <v>5001</v>
       </c>
       <c r="D344" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,13 +6037,13 @@
         <v>160</v>
       </c>
       <c r="B345" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C345">
-        <v>3119</v>
+        <v>5002</v>
       </c>
       <c r="D345" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,13 +6051,13 @@
         <v>160</v>
       </c>
       <c r="B346" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C346">
-        <v>3120</v>
+        <v>5003</v>
       </c>
       <c r="D346" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,13 +6065,13 @@
         <v>160</v>
       </c>
       <c r="B347" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C347">
-        <v>3121</v>
+        <v>5004</v>
       </c>
       <c r="D347" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,13 +6079,13 @@
         <v>160</v>
       </c>
       <c r="B348" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C348">
-        <v>3122</v>
+        <v>5005</v>
       </c>
       <c r="D348" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,13 +6093,13 @@
         <v>160</v>
       </c>
       <c r="B349" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C349">
-        <v>5001</v>
+        <v>5006</v>
       </c>
       <c r="D349" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
@@ -6097,13 +6107,13 @@
         <v>160</v>
       </c>
       <c r="B350" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C350">
-        <v>5002</v>
+        <v>5007</v>
       </c>
       <c r="D350" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
@@ -6111,13 +6121,13 @@
         <v>160</v>
       </c>
       <c r="B351" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C351">
-        <v>5003</v>
+        <v>5008</v>
       </c>
       <c r="D351" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,13 +6135,13 @@
         <v>160</v>
       </c>
       <c r="B352" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C352">
-        <v>5004</v>
+        <v>7001</v>
       </c>
       <c r="D352" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,13 +6149,13 @@
         <v>160</v>
       </c>
       <c r="B353" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C353">
-        <v>5005</v>
+        <v>7002</v>
       </c>
       <c r="D353" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6153,13 +6163,13 @@
         <v>160</v>
       </c>
       <c r="B354" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C354">
-        <v>5006</v>
+        <v>7003</v>
       </c>
       <c r="D354" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
@@ -6167,13 +6177,13 @@
         <v>160</v>
       </c>
       <c r="B355" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C355">
-        <v>5007</v>
+        <v>7004</v>
       </c>
       <c r="D355" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
@@ -6181,13 +6191,13 @@
         <v>160</v>
       </c>
       <c r="B356" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C356">
-        <v>5008</v>
+        <v>7005</v>
       </c>
       <c r="D356" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,13 +6205,13 @@
         <v>160</v>
       </c>
       <c r="B357" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C357">
-        <v>7001</v>
+        <v>7024</v>
       </c>
       <c r="D357" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6209,13 +6219,13 @@
         <v>160</v>
       </c>
       <c r="B358" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C358">
-        <v>7002</v>
+        <v>7025</v>
       </c>
       <c r="D358" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,13 +6233,13 @@
         <v>160</v>
       </c>
       <c r="B359" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C359">
-        <v>7003</v>
+        <v>7026</v>
       </c>
       <c r="D359" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,13 +6247,13 @@
         <v>160</v>
       </c>
       <c r="B360" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C360">
-        <v>7004</v>
+        <v>7027</v>
       </c>
       <c r="D360" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,13 +6261,13 @@
         <v>160</v>
       </c>
       <c r="B361" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C361">
-        <v>7005</v>
+        <v>7028</v>
       </c>
       <c r="D361" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6265,13 +6275,13 @@
         <v>160</v>
       </c>
       <c r="B362" t="s">
+        <v>161</v>
+      </c>
+      <c r="C362">
+        <v>7029</v>
+      </c>
+      <c r="D362" t="s">
         <v>167</v>
-      </c>
-      <c r="C362">
-        <v>7024</v>
-      </c>
-      <c r="D362" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6279,13 +6289,13 @@
         <v>160</v>
       </c>
       <c r="B363" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C363">
-        <v>7025</v>
+        <v>7030</v>
       </c>
       <c r="D363" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6293,13 +6303,13 @@
         <v>160</v>
       </c>
       <c r="B364" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C364">
-        <v>7026</v>
+        <v>7031</v>
       </c>
       <c r="D364" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6307,13 +6317,13 @@
         <v>160</v>
       </c>
       <c r="B365" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C365">
-        <v>7027</v>
+        <v>3301</v>
       </c>
       <c r="D365" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,13 +6331,13 @@
         <v>160</v>
       </c>
       <c r="B366" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C366">
-        <v>7028</v>
+        <v>3302</v>
       </c>
       <c r="D366" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6335,13 +6345,13 @@
         <v>160</v>
       </c>
       <c r="B367" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C367">
-        <v>7029</v>
+        <v>3303</v>
       </c>
       <c r="D367" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6349,13 +6359,13 @@
         <v>160</v>
       </c>
       <c r="B368" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C368">
-        <v>7030</v>
+        <v>3304</v>
       </c>
       <c r="D368" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
@@ -6363,13 +6373,13 @@
         <v>160</v>
       </c>
       <c r="B369" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C369">
-        <v>7031</v>
+        <v>3305</v>
       </c>
       <c r="D369" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -6377,13 +6387,13 @@
         <v>160</v>
       </c>
       <c r="B370" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C370">
-        <v>3301</v>
+        <v>3306</v>
       </c>
       <c r="D370" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6391,13 +6401,13 @@
         <v>160</v>
       </c>
       <c r="B371" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C371">
-        <v>3302</v>
+        <v>3307</v>
       </c>
       <c r="D371" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,13 +6415,13 @@
         <v>160</v>
       </c>
       <c r="B372" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C372">
-        <v>3303</v>
+        <v>3308</v>
       </c>
       <c r="D372" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6419,13 +6429,13 @@
         <v>160</v>
       </c>
       <c r="B373" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C373">
-        <v>3304</v>
+        <v>3309</v>
       </c>
       <c r="D373" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -6433,13 +6443,13 @@
         <v>160</v>
       </c>
       <c r="B374" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C374">
-        <v>3305</v>
+        <v>3310</v>
       </c>
       <c r="D374" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6447,13 +6457,13 @@
         <v>160</v>
       </c>
       <c r="B375" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C375">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="D375" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6461,13 +6471,13 @@
         <v>160</v>
       </c>
       <c r="B376" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C376">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="D376" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -6475,13 +6485,13 @@
         <v>160</v>
       </c>
       <c r="B377" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C377">
-        <v>3308</v>
+        <v>3313</v>
       </c>
       <c r="D377" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -6489,13 +6499,13 @@
         <v>160</v>
       </c>
       <c r="B378" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C378">
-        <v>3309</v>
+        <v>3314</v>
       </c>
       <c r="D378" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -6503,13 +6513,13 @@
         <v>160</v>
       </c>
       <c r="B379" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C379">
-        <v>3310</v>
+        <v>3315</v>
       </c>
       <c r="D379" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -6517,13 +6527,13 @@
         <v>160</v>
       </c>
       <c r="B380" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C380">
-        <v>3311</v>
+        <v>7300</v>
       </c>
       <c r="D380" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -6531,13 +6541,13 @@
         <v>160</v>
       </c>
       <c r="B381" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C381">
-        <v>3312</v>
+        <v>7301</v>
       </c>
       <c r="D381" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -6545,13 +6555,13 @@
         <v>160</v>
       </c>
       <c r="B382" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C382">
-        <v>3313</v>
+        <v>7302</v>
       </c>
       <c r="D382" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -6559,69 +6569,13 @@
         <v>160</v>
       </c>
       <c r="B383" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C383">
-        <v>3314</v>
+        <v>320</v>
       </c>
       <c r="D383" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>160</v>
-      </c>
-      <c r="B384" t="s">
-        <v>222</v>
-      </c>
-      <c r="C384">
-        <v>3315</v>
-      </c>
-      <c r="D384" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>160</v>
-      </c>
-      <c r="B385" t="s">
-        <v>222</v>
-      </c>
-      <c r="C385">
-        <v>7300</v>
-      </c>
-      <c r="D385" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>160</v>
-      </c>
-      <c r="B386" t="s">
-        <v>222</v>
-      </c>
-      <c r="C386">
-        <v>7301</v>
-      </c>
-      <c r="D386" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>160</v>
-      </c>
-      <c r="B387" t="s">
-        <v>222</v>
-      </c>
-      <c r="C387">
-        <v>7302</v>
-      </c>
-      <c r="D387" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
